--- a/INPUT/excel/エクセル説明.xlsx
+++ b/INPUT/excel/エクセル説明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kibakun/Documents/GitHub/2024start/Excel2MaiML2/setting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C6BFF5-5623-9B45-AC34-3F630A4B9DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{12E002FD-A904-8B44-BC76-A43413A1D5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="2460" windowWidth="37900" windowHeight="23300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12400" yWindow="2460" windowWidth="37900" windowHeight="25240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="【入力エクセルの説明】" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="TEMPLATE" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="190">
   <si>
     <t>TEMPLATEID</t>
   </si>
@@ -249,13 +250,7 @@
       <t xml:space="preserve">チ </t>
     </rPh>
     <rPh sb="35" eb="37">
-      <t>カキノ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t xml:space="preserve">チ </t>
+      <t xml:space="preserve">カキノヨウソチ </t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -344,25 +339,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>下記に記載する５シートは必ず１シートずつ作成する。順不同。</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">カキ </t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カナラズ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="25" eb="28">
-      <t>ジュn</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>シート名の先頭に"@"がついているものは、"@"以降の文字列が変数であることを示す。</t>
     <rPh sb="5" eb="7">
       <t>セントウ</t>
@@ -377,10 +353,7 @@
       <t>ヘンスウ</t>
     </rPh>
     <rPh sb="39" eb="40">
-      <t>シメセィ</t>
-    </rPh>
-    <rPh sb="55" eb="60">
-      <t>コテイ</t>
+      <t>シメセィコテイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -440,38 +413,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>&lt;document&gt;要素のID属性の値を記載する。
-記載がない場合の出力MaiMLデータにはデフォルト値が設定される。</t>
-    <rPh sb="10" eb="12">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シュテゥ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t xml:space="preserve">チ </t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>記載しない</t>
     <rPh sb="0" eb="2">
       <t>キサイ</t>
@@ -665,73 +606,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>CREATOR行は１行以上記載可能</t>
-    <rPh sb="7" eb="8">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ギョウイジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>VENDOR行は１行以上記載可能</t>
-    <rPh sb="6" eb="7">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>OWNER行は１行以上記載可能</t>
-    <rPh sb="5" eb="6">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>INSTRUMENT行は０行以上記載可能</t>
-    <rPh sb="10" eb="11">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>記載可能な行数</t>
     <rPh sb="0" eb="2">
       <t>キサイ</t>
@@ -792,38 +666,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>&lt;protocol&gt;要素のID属性の値を記載する。
-記載がない場合の出力MaiMLデータにはデフォルト値が設定される。</t>
-    <rPh sb="10" eb="12">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シュテゥ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t xml:space="preserve">チ </t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>&lt;protocol&gt;要素の&lt;uuid&gt;要素の値を記載する。
 記載がない場合の出力MaiMLデータには、新たに生成したver4のUUID値が設定される。</t>
     <rPh sb="10" eb="12">
@@ -1074,73 +916,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>METHOD行は１行以上記載可能</t>
-    <rPh sb="6" eb="7">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ギョウイジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>PNML行は１行以上記載可能</t>
-    <rPh sb="4" eb="5">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>PROGRAM行は１行以上記載可能</t>
-    <rPh sb="7" eb="8">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>INSTRUCTION行は１行以上記載可能</t>
-    <rPh sb="11" eb="12">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>&lt;arc&gt;要素のsource属性の値を記載する。必ず記載する。</t>
     <rPh sb="5" eb="7">
       <t>ヨウソ</t>
@@ -1252,54 +1027,6 @@
       <t>ヨウソ</t>
     </rPh>
     <rPh sb="10" eb="12">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>PLACE行は１行以上記載可能</t>
-    <rPh sb="5" eb="6">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ギョウイジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>TRANSITION行は１行以上記載可能</t>
-    <rPh sb="10" eb="11">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ARC行は１行以上記載可能</t>
-    <rPh sb="3" eb="4">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="9" eb="13">
       <t>キサイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -1423,22 +1150,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>記載可能な列数</t>
-    <rPh sb="0" eb="2">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>レテゥ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t xml:space="preserve">スウ </t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1519,54 +1230,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>NAME列は0または１列のみ記載可能※１</t>
-    <rPh sb="4" eb="5">
-      <t>レテゥ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>レテゥ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カノ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>DESCRIPTION列は0または１列のみ記載可能※１</t>
-    <rPh sb="11" eb="12">
-      <t>レテゥ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>レテゥ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カノ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ANNOTATION列は0または１列のみ記載可能※１</t>
-    <rPh sb="10" eb="11">
-      <t>レテゥ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>レテゥ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カノ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>※１　0列の場合、出力MaiMLデータにはその要素は記載されない</t>
     <rPh sb="9" eb="11">
       <t>シュテゥ</t>
@@ -1612,22 +1275,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>INSTRUMENTREF列は0列以上記載可能</t>
-    <rPh sb="13" eb="14">
-      <t>レテゥ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>レテゥ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="19" eb="23">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>&lt;arc&gt;要素のid属性の値を記載する。記載がない場合の出力MaiMLデータにはデフォルト値が設定される。</t>
     <rPh sb="5" eb="7">
       <t>ヨウソ</t>
@@ -1655,38 +1302,6 @@
   </si>
   <si>
     <t>MATERIALTTEMPLATE</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;materialTemplate&gt;要素のID属性の値を記載する。
-記載がない場合の出力MaiMLデータにはデフォルト値が設定される。</t>
-    <rPh sb="18" eb="20">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>シュテゥ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t xml:space="preserve">チ </t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>セッテイ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1837,787 +1452,1926 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>MATERIALTEMPLATE行は１行以上記載可能</t>
+    <t>１セルに１データを記載する</t>
+  </si>
+  <si>
+    <t>セルの背景色がピンクのセルは必須</t>
+    <rPh sb="3" eb="6">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セルの背景色が灰色のセルは記載不可</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>各シートの詳細はシートに記載</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カク </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TEMPLATEID列は１列のみ記載可能</t>
+    <rPh sb="10" eb="11">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カノ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TYPE列は１列のみ記載可能</t>
+    <rPh sb="4" eb="5">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カノ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>汎用データコンテナの要素名(property/content/uncertainty）を記載する。記載がない場合は、実行エラーとなりプログラムが終了する。</t>
+    <rPh sb="0" eb="2">
+      <t>ハンヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>汎用データコンテナのkey属性の値を記載する。記載がない場合は、実行エラーとなりプログラムが終了する。</t>
+    <rPh sb="0" eb="2">
+      <t>ハンヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゾクセイ</t>
+    </rPh>
     <rPh sb="16" eb="17">
-      <t>ギョウ</t>
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>汎用データコンテナのxsi:type属性の値を記載する。記載がない場合は、実行エラーとなりプログラムが終了する。</t>
+    <rPh sb="0" eb="2">
+      <t>ハンヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>#KEY列は１列のみ記載可能</t>
+    <rPh sb="4" eb="5">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カノ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>#XSI:TYPE列は１列のみ記載可能</t>
+    <rPh sb="9" eb="10">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カノ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>←記載可能な列数</t>
+    <rPh sb="1" eb="3">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">スウ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>汎用データコンテナのunits属性の値を記載する。記載がない場合は、出力MaiMLデータに属性は設定されない。</t>
+    <rPh sb="25" eb="27">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュテゥ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>汎用データコンテナのformatstring属性の値を記載する。記載がない場合は、出力MaiMLデータに属性は設定されない。</t>
+    <rPh sb="32" eb="34">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シュテゥ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>汎用データコンテナのscalefactor属性の値を記載する。記載がない場合は、出力MaiMLデータに属性は設定されない。</t>
+    <rPh sb="31" eb="33">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シュテゥ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>汎用データコンテナのaxis属性の値を記載する。記載がない場合は、出力MaiMLデータに属性は設定されない。</t>
+    <rPh sb="24" eb="26">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シュテゥ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>汎用データコンテナのsize属性の値を記載する。記載がない場合は、出力MaiMLデータに属性は設定されない。</t>
+    <rPh sb="24" eb="26">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シュテゥ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>汎用データコンテナの&lt;name&gt;要素の値を記載する。
+記載がない場合の出力MaiMLデータは、タグのみ（&lt;name&gt;&lt;/name&gt;）設定される。</t>
+    <rPh sb="0" eb="2">
+      <t>ハンヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヨウソ</t>
     </rPh>
     <rPh sb="19" eb="20">
-      <t>ギョウ</t>
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シュテゥ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>汎用データコンテナの&lt;description&gt;要素の値を記載する。
+記載がない場合の出力MaiMLデータは、タグのみ（&lt;description&gt;&lt;/description&gt;）設定される。</t>
+    <rPh sb="0" eb="2">
+      <t>ハンヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シュテゥ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>この列の汎用データコンテナが、同じtemplate内の汎用データコンテナの子要素となる場合に、親となる汎用データコンテナのkey属性の値を記載する。記載がない場合、出力MaiMLデータに、template要素の直下の子要素として設定される。</t>
+    <rPh sb="2" eb="3">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハンヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オナジ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>🈚️</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハンヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t xml:space="preserve">コ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ハンヨウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>シュテゥ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>チョッカ</t>
+    </rPh>
+    <rPh sb="108" eb="111">
+      <t>コヨウ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>汎用データコンテナの&lt;value&gt;要素の値を記載する。
+※２</t>
+    <rPh sb="0" eb="2">
+      <t>ハンヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>※２　valueセルに値の記載がなく、同列のXSI:TYPEが"propertyListType"の場合、出力MaiMLデータに&lt;value&gt;要素を設定しない。</t>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ドウレテゥ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>シュテゥヨウシュテゥヨウソセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　　　　valueセルに値の記載がなく、同列のXSI:TYPEが"propertyListType"以外の場合、出力MaiMLデータに&lt;value&gt;要素をタグのみ（&lt;value&gt;&lt;/value&gt;）設定する。ただし、空の&lt;value&gt;要素は１つの汎用データコンテナに１つのみ設定する。</t>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キサイ</t>
     </rPh>
     <rPh sb="20" eb="22">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="22" eb="26">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>CONDITIONTEMPLATE行は１行以上記載可能</t>
-    <rPh sb="17" eb="18">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ギョウ</t>
+      <t>ドウレテゥ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>シュテゥヨウシュテゥヨウソセッテイカラノ ヨウソハンヨウセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1. シート構成</t>
+    <rPh sb="6" eb="8">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2. データ記載方法</t>
+    <rPh sb="6" eb="8">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2-1. 全シート共通事項</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ゼン </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2-2. シート毎の詳細</t>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">ゴトノ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>汎用データコンテナを追加するtemplate要素（materialTemplate/conditionTemplate/resultTemplate）のid属性の値を記載する。記載がない場合は、実行エラーとなりプログラムが終了する。</t>
+    <rPh sb="2" eb="4">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカス</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キサイ</t>
     </rPh>
     <rPh sb="21" eb="23">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="23" eb="27">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>RESULTTEMPLATE行は１行以上記載可能</t>
-    <rPh sb="14" eb="15">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ギョウ</t>
+      <t>ハンヨウ</t>
+    </rPh>
+    <rPh sb="82" eb="85">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【excel2protocolMaiML.pyの入力データであるエクセルファイルの記載方法の説明】</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>下記に記載する５シートは必ず１シート以上作成する。順不同。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カキ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カナラズ</t>
     </rPh>
     <rPh sb="18" eb="20">
       <t>イジョウ</t>
     </rPh>
-    <rPh sb="20" eb="24">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>PLACEREF列は１列以上記載可能</t>
+    <rPh sb="20" eb="22">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ジュn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;protocol&gt;要素のid属性の値を記載する。
+記載がない場合の出力MaiMLデータにはデフォルト値が設定される。</t>
+    <rPh sb="10" eb="12">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュテゥ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t xml:space="preserve">チ </t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;document&gt;要素のid属性の値を記載する。
+記載がない場合の出力MaiMLデータにはデフォルト値が設定される。</t>
+    <rPh sb="10" eb="12">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュテゥ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t xml:space="preserve">チ </t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;materialTemplate&gt;要素のid属性の値を記載する。
+記載がない場合の出力MaiMLデータにはデフォルト値が設定される。</t>
+    <rPh sb="18" eb="20">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シュテゥ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t xml:space="preserve">チ </t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0. 用語</t>
+    <rPh sb="3" eb="5">
+      <t>ヨウゴ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ID値：MaiMLデータフォーマットにおいて、要素がもつid属性の値</t>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">チ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>template要素：materialTemplate、conditionTemplate、resultTemplateのいづれか、もしくは全てのこと</t>
+    <rPh sb="8" eb="10">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>スベテ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>エクセルファイルには、計測分析の機器、手順、条件等をMaiML形式のデータとして出力するための情報を記載する。</t>
+    <rPh sb="11" eb="15">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">キキ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テジュn</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">キキ </t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>１シートのみ可</t>
+    <rPh sb="6" eb="7">
+      <t>ky</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セルの背景色が緑色のセルは固定値（１行目のヘッダー項目、TEMPLATEシート以外のA列の項目）</t>
+    <rPh sb="3" eb="6">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミドリ</t>
+    </rPh>
     <rPh sb="8" eb="9">
+      <t xml:space="preserve">イロ </t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
       <t>レテゥ</t>
     </rPh>
-    <rPh sb="11" eb="12">
+    <rPh sb="45" eb="47">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>↓記載可能な行数</t>
+    <rPh sb="1" eb="3">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>記載可能な列数→</t>
+    <rPh sb="0" eb="2">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
       <t>レテゥ</t>
     </rPh>
-    <rPh sb="12" eb="14">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>TEMPLATEREF列は0列以上記載可能</t>
-    <rPh sb="11" eb="12">
-      <t>レテゥ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>レテゥ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>１行目のヘッダー項目は固定値</t>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">スウ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>#FORMATSTRING列は</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>列の項目は固定値</t>
-    </r>
-  </si>
-  <si>
-    <t>１セルに１データを記載する</t>
-  </si>
-  <si>
-    <t>セルの背景色がピンクのセルは必須</t>
-    <rPh sb="3" eb="6">
-      <t>ハイケイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>セルの背景色が灰色のセルは記載不可</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>各シートの詳細はシートに記載</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">カク </t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショウサイ</t>
+      <t>0または１列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のみ記載可能※１</t>
+    </r>
+    <rPh sb="13" eb="14">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カノ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>#SCALEFACTOR列は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0または１列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のみ記載可能※１</t>
+    </r>
+    <rPh sb="12" eb="13">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カノ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>#AXIS列は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0または１列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のみ記載可能※１</t>
+    </r>
+    <rPh sb="5" eb="6">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カノ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>#SIZE列は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0または１列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のみ記載可能※１</t>
+    </r>
+    <rPh sb="5" eb="6">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カノ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>PARENTKEY列は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0または１列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のみ記載可能※１</t>
+    </r>
+    <rPh sb="9" eb="10">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カノ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>#VALUE列は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>１列以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>記載可能※２</t>
+    </r>
+    <rPh sb="6" eb="7">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イジョウ</t>
     </rPh>
     <rPh sb="12" eb="14">
       <t>キサイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>TEMPLATEID列は１列のみ記載可能</t>
+    <rPh sb="14" eb="16">
+      <t>カノ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>NAME列は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0または１列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のみ記載可能※１</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カノ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>DESCRIPTION列は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0または１列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のみ記載可能※１</t>
+    </r>
+    <rPh sb="11" eb="12">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カノ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>１つのTEMPLATEIDに対し、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>０行以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>記載可能</t>
+    </r>
+    <rPh sb="14" eb="15">
+      <t>タイセィ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>#UNITS列は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0または１列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のみ記載可能※１</t>
+    </r>
+    <rPh sb="6" eb="7">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カノ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>PLACEREF列は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>１列以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>記載可能</t>
+    </r>
+    <rPh sb="8" eb="9">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>ANNOTATION列は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0または１列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のみ記載可能※１</t>
+    </r>
     <rPh sb="10" eb="11">
       <t>レテゥ</t>
     </rPh>
+    <rPh sb="17" eb="18">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カノ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>TEMPLATEREF列は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0列以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>記載可能</t>
+    </r>
+    <rPh sb="11" eb="12">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>MATERIALTEMPLATE行は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>１行以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>記載可能</t>
+    </r>
+    <rPh sb="16" eb="17">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>CONDITIONTEMPLATE行は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>１行以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>記載可能</t>
+    </r>
+    <rPh sb="17" eb="18">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>RESULTTEMPLATE行は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>１行以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>記載可能</t>
+    </r>
+    <rPh sb="14" eb="15">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>TRANSITION行は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>１行以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>記載可能</t>
+    </r>
+    <rPh sb="10" eb="11">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>PLACE行は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>１行以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>記載可能</t>
+    </r>
+    <rPh sb="5" eb="6">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ギョウイジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>ARC行は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>１行以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>記載可能</t>
+    </r>
+    <rPh sb="3" eb="4">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>METHOD行は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>１行以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>記載可能</t>
+    </r>
+    <rPh sb="6" eb="7">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ギョウイジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>PNML行は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>１行以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>記載可能</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>PROGRAM行は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>１行以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>記載可能</t>
+    </r>
+    <rPh sb="7" eb="8">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>INSTRUCTION行は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>１行以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>記載可能</t>
+    </r>
+    <rPh sb="11" eb="12">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>TRANSITIONREF列は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>１列以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>記載可能</t>
+    </r>
     <rPh sb="13" eb="14">
       <t>レテゥ</t>
     </rPh>
-    <rPh sb="16" eb="18">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カノ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>TYPE列は１列のみ記載可能</t>
-    <rPh sb="4" eb="5">
+    <rPh sb="16" eb="17">
       <t>レテゥ</t>
     </rPh>
-    <rPh sb="7" eb="8">
-      <t>レテゥ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カノ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>汎用データコンテナの要素名(property/content/uncertainty）を記載する。記載がない場合は、実行エラーとなりプログラムが終了する。</t>
-    <rPh sb="0" eb="2">
-      <t>ハンヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>汎用データコンテナのkey属性の値を記載する。記載がない場合は、実行エラーとなりプログラムが終了する。</t>
-    <rPh sb="0" eb="2">
-      <t>ハンヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>汎用データコンテナのxsi:type属性の値を記載する。記載がない場合は、実行エラーとなりプログラムが終了する。</t>
-    <rPh sb="0" eb="2">
-      <t>ハンヨウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>#KEY列は１列のみ記載可能</t>
-    <rPh sb="4" eb="5">
-      <t>レテゥ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>レテゥ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カノ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>#XSI:TYPE列は１列のみ記載可能</t>
-    <rPh sb="9" eb="10">
-      <t>レテゥ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>レテゥ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キサイ</t>
-    </rPh>
     <rPh sb="17" eb="19">
-      <t>カノ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>←記載可能な列数</t>
-    <rPh sb="1" eb="3">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>レテゥ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t xml:space="preserve">スウ </t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>#UNITS列は0または１列のみ記載可能※１</t>
-    <rPh sb="6" eb="7">
-      <t>レテゥ</t>
-    </rPh>
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>INSTRUMENTREF列は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0列以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>記載可能</t>
+    </r>
     <rPh sb="13" eb="14">
       <t>レテゥ</t>
     </rPh>
-    <rPh sb="16" eb="18">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カノ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>#FORMATSTRING列は0または１列のみ記載可能※１</t>
-    <rPh sb="13" eb="14">
-      <t>レテゥ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>レテゥ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>カノ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>#SCALEFACTOR列は0または１列のみ記載可能※１</t>
-    <rPh sb="12" eb="13">
-      <t>レテゥ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>レテゥ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カノ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>#AXIS列は0または１列のみ記載可能※１</t>
-    <rPh sb="5" eb="6">
-      <t>レテゥ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>レテゥ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カノ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>#SIZE列は0または１列のみ記載可能※１</t>
-    <rPh sb="5" eb="6">
-      <t>レテゥ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>レテゥ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カノ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>汎用データコンテナのunits属性の値を記載する。記載がない場合は、出力MaiMLデータに属性は設定されない。</t>
-    <rPh sb="25" eb="27">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シュテゥ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>汎用データコンテナのformatstring属性の値を記載する。記載がない場合は、出力MaiMLデータに属性は設定されない。</t>
-    <rPh sb="32" eb="34">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>シュテゥ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>汎用データコンテナのscalefactor属性の値を記載する。記載がない場合は、出力MaiMLデータに属性は設定されない。</t>
-    <rPh sb="31" eb="33">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>シュテゥ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>汎用データコンテナのaxis属性の値を記載する。記載がない場合は、出力MaiMLデータに属性は設定されない。</t>
-    <rPh sb="24" eb="26">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>シュテゥ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>汎用データコンテナのsize属性の値を記載する。記載がない場合は、出力MaiMLデータに属性は設定されない。</t>
-    <rPh sb="24" eb="26">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>シュテゥ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>汎用データコンテナの&lt;name&gt;要素の値を記載する。
-記載がない場合の出力MaiMLデータは、タグのみ（&lt;name&gt;&lt;/name&gt;）設定される。</t>
-    <rPh sb="0" eb="2">
-      <t>ハンヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>シュテゥ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>汎用データコンテナの&lt;description&gt;要素の値を記載する。
-記載がない場合の出力MaiMLデータは、タグのみ（&lt;description&gt;&lt;/description&gt;）設定される。</t>
-    <rPh sb="0" eb="2">
-      <t>ハンヨウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>シュテゥ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>この列の汎用データコンテナが、同じtemplate内の汎用データコンテナの子要素となる場合に、親となる汎用データコンテナのkey属性の値を記載する。記載がない場合、出力MaiMLデータに、template要素の直下の子要素として設定される。</t>
-    <rPh sb="2" eb="3">
-      <t>レテゥ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ハンヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オナジ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>🈚️</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ハンヨウ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t xml:space="preserve">コ </t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>オヤ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ハンヨウ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>シュテゥ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>チョッカ</t>
-    </rPh>
-    <rPh sb="108" eb="111">
-      <t>コヨウ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>PARENTKEY列は0または１列のみ記載可能※１</t>
-    <rPh sb="9" eb="10">
-      <t>レテゥ</t>
-    </rPh>
     <rPh sb="16" eb="17">
       <t>レテゥ</t>
     </rPh>
-    <rPh sb="19" eb="21">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カノ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>#VALUE列は１列以上記載可能※２</t>
+    <rPh sb="17" eb="19">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>CREATOR行は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>１行以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>記載可能</t>
+    </r>
+    <rPh sb="7" eb="8">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ギョウイジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>VENDOR行は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>１行以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>記載可能</t>
+    </r>
     <rPh sb="6" eb="7">
-      <t>レテゥ</t>
+      <t>ギョウ</t>
     </rPh>
     <rPh sb="9" eb="10">
-      <t>レテゥ</t>
+      <t>ギョウ</t>
     </rPh>
     <rPh sb="10" eb="12">
       <t>イジョウ</t>
     </rPh>
-    <rPh sb="12" eb="14">
-      <t>キサイ</t>
+    <rPh sb="12" eb="16">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>OWNER行は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>１行以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>記載可能</t>
+    </r>
+    <rPh sb="5" eb="6">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>INSTRUMENT行は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>０行以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>記載可能</t>
+    </r>
+    <rPh sb="10" eb="11">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ギョウ</t>
     </rPh>
     <rPh sb="14" eb="16">
-      <t>カノ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>汎用データコンテナの&lt;value&gt;要素の値を記載する。
-※２</t>
-    <rPh sb="0" eb="2">
-      <t>ハンヨウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>※２　valueセルに値の記載がなく、同列のXSI:TYPEが"propertyListType"の場合、出力MaiMLデータに&lt;value&gt;要素を設定しない。</t>
-    <rPh sb="11" eb="12">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ドウレテゥ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>シュテ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ゥヨウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t/>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>シュテゥ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>　　　　valueセルに値の記載がなく、同列のXSI:TYPEが"propertyListType"以外の場合、出力MaiMLデータに&lt;value&gt;要素をタグのみ（&lt;value&gt;&lt;/value&gt;）設定する。ただし、空の&lt;value&gt;要素は１つの汎用データコンテナに１つのみ設定する。</t>
-    <rPh sb="12" eb="13">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ドウレテゥ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>シュテ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ゥヨウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t/>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>シュテゥ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t xml:space="preserve">カラノ </t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>ハンヨウ</t>
-    </rPh>
-    <rPh sb="136" eb="138">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>１つのTEMPLATEIDに対し、０行以上記載可能</t>
-    <rPh sb="14" eb="15">
-      <t>タイセィ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
       <t>イジョウ</t>
     </rPh>
-    <rPh sb="21" eb="25">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1. シート構成</t>
-    <rPh sb="6" eb="8">
-      <t>コウセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>2. データ記載方法</t>
-    <rPh sb="6" eb="8">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>2-1. 全シート共通事項</t>
-    <rPh sb="5" eb="6">
-      <t xml:space="preserve">ゼン </t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>2-2. シート毎の詳細</t>
-    <rPh sb="8" eb="9">
-      <t xml:space="preserve">ゴトノ </t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>エクセルファイルには、計測分析の手法をMaiML形式のデータとして出力するための情報を記載する。</t>
-    <rPh sb="11" eb="15">
-      <t>ケイソク</t>
-    </rPh>
     <rPh sb="16" eb="18">
-      <t>シュホウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>汎用データコンテナを追加するtemplate要素（materialTemplate/conditionTemplate/resultTemplate）のid属性の値を記載する。記載がない場合は、実行エラーとなりプログラムが終了する。</t>
-    <rPh sb="2" eb="4">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ツイカス</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ハンヨウ</t>
-    </rPh>
-    <rPh sb="82" eb="85">
-      <t>オヤ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>【excel2protocolMaiML.pyの入力データであるエクセルファイルの記載方法の説明】</t>
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カノウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2625,7 +3379,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2744,6 +3498,24 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -3159,7 +3931,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3177,7 +3949,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3193,10 +3965,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3210,16 +3982,16 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3242,11 +4014,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3300,7 +4072,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3340,15 +4112,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3426,6 +4193,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3728,188 +4500,1543 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043FA22D-BE93-FD48-8E6E-15BF7383CE53}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:AF45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="AA36" sqref="AA36"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="17">
-      <c r="A1" s="109" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" t="s">
+    <row r="1" spans="1:32" ht="17">
+      <c r="A1" s="106" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="15" customHeight="1">
+      <c r="B3" s="107" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="107"/>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="107"/>
+    </row>
+    <row r="4" spans="1:32" ht="15" customHeight="1">
+      <c r="B4" s="107" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="107"/>
+      <c r="AF4" s="107"/>
+    </row>
+    <row r="5" spans="1:32" ht="15" customHeight="1">
+      <c r="B5" s="107"/>
+      <c r="C5" s="107" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
+      <c r="AB5" s="107"/>
+      <c r="AC5" s="107"/>
+      <c r="AD5" s="107"/>
+      <c r="AE5" s="107"/>
+      <c r="AF5" s="107"/>
+    </row>
+    <row r="6" spans="1:32" ht="15" customHeight="1">
+      <c r="B6" s="107"/>
+      <c r="C6" s="107" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="107"/>
+      <c r="Y6" s="107"/>
+      <c r="Z6" s="107"/>
+      <c r="AA6" s="107"/>
+      <c r="AB6" s="107"/>
+      <c r="AC6" s="107"/>
+      <c r="AD6" s="107"/>
+      <c r="AE6" s="107"/>
+      <c r="AF6" s="107"/>
+    </row>
+    <row r="7" spans="1:32" ht="15" customHeight="1">
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="107"/>
+      <c r="AC7" s="107"/>
+      <c r="AD7" s="107"/>
+      <c r="AE7" s="107"/>
+      <c r="AF7" s="107"/>
+    </row>
+    <row r="8" spans="1:32" ht="15" customHeight="1">
+      <c r="B8" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
+      <c r="Y8" s="107"/>
+      <c r="Z8" s="107"/>
+      <c r="AA8" s="107"/>
+      <c r="AB8" s="107"/>
+      <c r="AC8" s="107"/>
+      <c r="AD8" s="107"/>
+      <c r="AE8" s="107"/>
+      <c r="AF8" s="107"/>
+    </row>
+    <row r="9" spans="1:32" ht="15" customHeight="1">
+      <c r="B9" s="107"/>
+      <c r="C9" s="107" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="107"/>
+      <c r="U9" s="107"/>
+      <c r="V9" s="107"/>
+      <c r="W9" s="107"/>
+      <c r="X9" s="107"/>
+      <c r="Y9" s="107"/>
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="107"/>
+      <c r="AB9" s="107"/>
+      <c r="AC9" s="107"/>
+      <c r="AD9" s="107"/>
+      <c r="AE9" s="107"/>
+      <c r="AF9" s="107"/>
+    </row>
+    <row r="10" spans="1:32" ht="15" customHeight="1">
+      <c r="B10" s="107"/>
+      <c r="C10" s="107" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" t="s">
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="107"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="107"/>
+      <c r="U10" s="107"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="107"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="107"/>
+      <c r="Z10" s="107"/>
+      <c r="AA10" s="107"/>
+      <c r="AB10" s="107"/>
+      <c r="AC10" s="107"/>
+      <c r="AD10" s="107"/>
+      <c r="AE10" s="107"/>
+      <c r="AF10" s="107"/>
+    </row>
+    <row r="11" spans="1:32" ht="15" customHeight="1">
+      <c r="B11" s="107"/>
+      <c r="C11" s="107" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" t="s">
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="107"/>
+      <c r="X11" s="107"/>
+      <c r="Y11" s="107"/>
+      <c r="Z11" s="107"/>
+      <c r="AA11" s="107"/>
+      <c r="AB11" s="107"/>
+      <c r="AC11" s="107"/>
+      <c r="AD11" s="107"/>
+      <c r="AE11" s="107"/>
+      <c r="AF11" s="107"/>
+    </row>
+    <row r="12" spans="1:32" ht="15" customHeight="1">
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="107"/>
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="107"/>
+      <c r="AA12" s="107"/>
+      <c r="AB12" s="107"/>
+      <c r="AC12" s="107"/>
+      <c r="AD12" s="107"/>
+      <c r="AE12" s="107"/>
+      <c r="AF12" s="107"/>
+    </row>
+    <row r="13" spans="1:32" ht="15" customHeight="1">
+      <c r="B13" s="107"/>
+      <c r="C13" s="107" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="C11" t="s">
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="107"/>
+      <c r="Y13" s="107"/>
+      <c r="Z13" s="107"/>
+      <c r="AA13" s="107"/>
+      <c r="AB13" s="107"/>
+      <c r="AC13" s="107"/>
+      <c r="AD13" s="107"/>
+      <c r="AE13" s="107"/>
+      <c r="AF13" s="107"/>
+    </row>
+    <row r="14" spans="1:32" ht="15" customHeight="1">
+      <c r="B14" s="107"/>
+      <c r="C14" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="107" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="C12" t="s">
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="107"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="107"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="107"/>
+      <c r="X14" s="107"/>
+      <c r="Y14" s="107"/>
+      <c r="Z14" s="107"/>
+      <c r="AA14" s="107"/>
+      <c r="AB14" s="107"/>
+      <c r="AC14" s="107"/>
+      <c r="AD14" s="107"/>
+      <c r="AE14" s="107"/>
+      <c r="AF14" s="107"/>
+    </row>
+    <row r="15" spans="1:32" ht="15" customHeight="1">
+      <c r="B15" s="107"/>
+      <c r="C15" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="107" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" t="s">
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="107"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="107"/>
+      <c r="W15" s="107"/>
+      <c r="X15" s="107"/>
+      <c r="Y15" s="107"/>
+      <c r="Z15" s="107"/>
+      <c r="AA15" s="107"/>
+      <c r="AB15" s="107"/>
+      <c r="AC15" s="107"/>
+      <c r="AD15" s="107"/>
+      <c r="AE15" s="107"/>
+      <c r="AF15" s="107"/>
+    </row>
+    <row r="16" spans="1:32" ht="15" customHeight="1">
+      <c r="B16" s="107"/>
+      <c r="C16" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="107" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="107"/>
+      <c r="Q16" s="107"/>
+      <c r="R16" s="107"/>
+      <c r="S16" s="107"/>
+      <c r="T16" s="107"/>
+      <c r="U16" s="107"/>
+      <c r="V16" s="107"/>
+      <c r="W16" s="107"/>
+      <c r="X16" s="107"/>
+      <c r="Y16" s="107"/>
+      <c r="Z16" s="107"/>
+      <c r="AA16" s="107"/>
+      <c r="AB16" s="107"/>
+      <c r="AC16" s="107"/>
+      <c r="AD16" s="107"/>
+      <c r="AE16" s="107"/>
+      <c r="AF16" s="107"/>
+    </row>
+    <row r="17" spans="2:32" ht="15" customHeight="1">
+      <c r="B17" s="107"/>
+      <c r="C17" s="107" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="C15" t="s">
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="107"/>
+      <c r="R17" s="107"/>
+      <c r="S17" s="107"/>
+      <c r="T17" s="107"/>
+      <c r="U17" s="107"/>
+      <c r="V17" s="107"/>
+      <c r="W17" s="107"/>
+      <c r="X17" s="107"/>
+      <c r="Y17" s="107"/>
+      <c r="Z17" s="107"/>
+      <c r="AA17" s="107"/>
+      <c r="AB17" s="107"/>
+      <c r="AC17" s="107"/>
+      <c r="AD17" s="107"/>
+      <c r="AE17" s="107"/>
+      <c r="AF17" s="107"/>
+    </row>
+    <row r="18" spans="2:32" ht="15" customHeight="1">
+      <c r="B18" s="107"/>
+      <c r="C18" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="107" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="C16" t="s">
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="107"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="107"/>
+      <c r="V18" s="107"/>
+      <c r="W18" s="107"/>
+      <c r="X18" s="107"/>
+      <c r="Y18" s="107"/>
+      <c r="Z18" s="107"/>
+      <c r="AA18" s="107"/>
+      <c r="AB18" s="107"/>
+      <c r="AC18" s="107"/>
+      <c r="AD18" s="107"/>
+      <c r="AE18" s="107"/>
+      <c r="AF18" s="107"/>
+    </row>
+    <row r="19" spans="2:32" ht="15" customHeight="1">
+      <c r="B19" s="107"/>
+      <c r="C19" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="107" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" t="s">
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="107"/>
+      <c r="O19" s="107"/>
+      <c r="P19" s="107"/>
+      <c r="Q19" s="107"/>
+      <c r="R19" s="107"/>
+      <c r="S19" s="107"/>
+      <c r="T19" s="107"/>
+      <c r="U19" s="107"/>
+      <c r="V19" s="107"/>
+      <c r="W19" s="107"/>
+      <c r="X19" s="107"/>
+      <c r="Y19" s="107"/>
+      <c r="Z19" s="107"/>
+      <c r="AA19" s="107"/>
+      <c r="AB19" s="107"/>
+      <c r="AC19" s="107"/>
+      <c r="AD19" s="107"/>
+      <c r="AE19" s="107"/>
+      <c r="AF19" s="107"/>
+    </row>
+    <row r="20" spans="2:32" ht="15" customHeight="1">
+      <c r="B20" s="107"/>
+      <c r="C20" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="107" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="107"/>
+      <c r="Q20" s="107"/>
+      <c r="R20" s="107"/>
+      <c r="S20" s="107"/>
+      <c r="T20" s="107"/>
+      <c r="U20" s="107"/>
+      <c r="V20" s="107"/>
+      <c r="W20" s="107"/>
+      <c r="X20" s="107"/>
+      <c r="Y20" s="107"/>
+      <c r="Z20" s="107"/>
+      <c r="AA20" s="107"/>
+      <c r="AB20" s="107"/>
+      <c r="AC20" s="107"/>
+      <c r="AD20" s="107"/>
+      <c r="AE20" s="107"/>
+      <c r="AF20" s="107"/>
+    </row>
+    <row r="21" spans="2:32" ht="15" customHeight="1">
+      <c r="B21" s="107"/>
+      <c r="C21" s="107" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="C19" t="s">
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
+      <c r="S21" s="107"/>
+      <c r="T21" s="107"/>
+      <c r="U21" s="107"/>
+      <c r="V21" s="107"/>
+      <c r="W21" s="107"/>
+      <c r="X21" s="107"/>
+      <c r="Y21" s="107"/>
+      <c r="Z21" s="107"/>
+      <c r="AA21" s="107"/>
+      <c r="AB21" s="107"/>
+      <c r="AC21" s="107"/>
+      <c r="AD21" s="107"/>
+      <c r="AE21" s="107"/>
+      <c r="AF21" s="107"/>
+    </row>
+    <row r="22" spans="2:32" ht="15" customHeight="1">
+      <c r="B22" s="107"/>
+      <c r="C22" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="107" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="C20" t="s">
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="107"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="107"/>
+      <c r="R22" s="107"/>
+      <c r="S22" s="107"/>
+      <c r="T22" s="107"/>
+      <c r="U22" s="107"/>
+      <c r="V22" s="107"/>
+      <c r="W22" s="107"/>
+      <c r="X22" s="107"/>
+      <c r="Y22" s="107"/>
+      <c r="Z22" s="107"/>
+      <c r="AA22" s="107"/>
+      <c r="AB22" s="107"/>
+      <c r="AC22" s="107"/>
+      <c r="AD22" s="107"/>
+      <c r="AE22" s="107"/>
+      <c r="AF22" s="107"/>
+    </row>
+    <row r="23" spans="2:32" ht="15" customHeight="1">
+      <c r="B23" s="107"/>
+      <c r="C23" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="107" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="C21" t="s">
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="107"/>
+      <c r="N23" s="107"/>
+      <c r="O23" s="107"/>
+      <c r="P23" s="107"/>
+      <c r="Q23" s="107"/>
+      <c r="R23" s="107"/>
+      <c r="S23" s="107"/>
+      <c r="T23" s="107"/>
+      <c r="U23" s="107"/>
+      <c r="V23" s="107"/>
+      <c r="W23" s="107"/>
+      <c r="X23" s="107"/>
+      <c r="Y23" s="107"/>
+      <c r="Z23" s="107"/>
+      <c r="AA23" s="107"/>
+      <c r="AB23" s="107"/>
+      <c r="AC23" s="107"/>
+      <c r="AD23" s="107"/>
+      <c r="AE23" s="107"/>
+      <c r="AF23" s="107"/>
+    </row>
+    <row r="24" spans="2:32" ht="15" customHeight="1">
+      <c r="B24" s="107"/>
+      <c r="C24" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="107" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" t="s">
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="107"/>
+      <c r="P24" s="107"/>
+      <c r="Q24" s="107"/>
+      <c r="R24" s="107"/>
+      <c r="S24" s="107"/>
+      <c r="T24" s="107"/>
+      <c r="U24" s="107"/>
+      <c r="V24" s="107"/>
+      <c r="W24" s="107"/>
+      <c r="X24" s="107"/>
+      <c r="Y24" s="107"/>
+      <c r="Z24" s="107"/>
+      <c r="AA24" s="107"/>
+      <c r="AB24" s="107"/>
+      <c r="AC24" s="107"/>
+      <c r="AD24" s="107"/>
+      <c r="AE24" s="107"/>
+      <c r="AF24" s="107"/>
+    </row>
+    <row r="25" spans="2:32" ht="15" customHeight="1">
+      <c r="B25" s="107"/>
+      <c r="C25" s="107" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="C24" t="s">
+      <c r="D25" s="107"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="107"/>
+      <c r="N25" s="107"/>
+      <c r="O25" s="107"/>
+      <c r="P25" s="107"/>
+      <c r="Q25" s="107"/>
+      <c r="R25" s="107"/>
+      <c r="S25" s="107"/>
+      <c r="T25" s="107"/>
+      <c r="U25" s="107"/>
+      <c r="V25" s="107"/>
+      <c r="W25" s="107"/>
+      <c r="X25" s="107"/>
+      <c r="Y25" s="107"/>
+      <c r="Z25" s="107"/>
+      <c r="AA25" s="107"/>
+      <c r="AB25" s="107"/>
+      <c r="AC25" s="107"/>
+      <c r="AD25" s="107"/>
+      <c r="AE25" s="107"/>
+      <c r="AF25" s="107"/>
+    </row>
+    <row r="26" spans="2:32" ht="15" customHeight="1">
+      <c r="B26" s="107"/>
+      <c r="C26" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="107" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="D25" t="s">
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="107"/>
+      <c r="N26" s="107"/>
+      <c r="O26" s="107"/>
+      <c r="P26" s="107"/>
+      <c r="Q26" s="107"/>
+      <c r="R26" s="107"/>
+      <c r="S26" s="107"/>
+      <c r="T26" s="107"/>
+      <c r="U26" s="107"/>
+      <c r="V26" s="107"/>
+      <c r="W26" s="107"/>
+      <c r="X26" s="107"/>
+      <c r="Y26" s="107"/>
+      <c r="Z26" s="107"/>
+      <c r="AA26" s="107"/>
+      <c r="AB26" s="107"/>
+      <c r="AC26" s="107"/>
+      <c r="AD26" s="107"/>
+      <c r="AE26" s="107"/>
+      <c r="AF26" s="107"/>
+    </row>
+    <row r="27" spans="2:32" ht="15" customHeight="1">
+      <c r="B27" s="107"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="D26" t="s">
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="107"/>
+      <c r="L27" s="107"/>
+      <c r="M27" s="107"/>
+      <c r="N27" s="107"/>
+      <c r="O27" s="107"/>
+      <c r="P27" s="107"/>
+      <c r="Q27" s="107"/>
+      <c r="R27" s="107"/>
+      <c r="S27" s="107"/>
+      <c r="T27" s="107"/>
+      <c r="U27" s="107"/>
+      <c r="V27" s="107"/>
+      <c r="W27" s="107"/>
+      <c r="X27" s="107"/>
+      <c r="Y27" s="107"/>
+      <c r="Z27" s="107"/>
+      <c r="AA27" s="107"/>
+      <c r="AB27" s="107"/>
+      <c r="AC27" s="107"/>
+      <c r="AD27" s="107"/>
+      <c r="AE27" s="107"/>
+      <c r="AF27" s="107"/>
+    </row>
+    <row r="28" spans="2:32" ht="15" customHeight="1">
+      <c r="B28" s="107"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="D27" t="s">
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="107"/>
+      <c r="L28" s="107"/>
+      <c r="M28" s="107"/>
+      <c r="N28" s="107"/>
+      <c r="O28" s="107"/>
+      <c r="P28" s="107"/>
+      <c r="Q28" s="107"/>
+      <c r="R28" s="107"/>
+      <c r="S28" s="107"/>
+      <c r="T28" s="107"/>
+      <c r="U28" s="107"/>
+      <c r="V28" s="107"/>
+      <c r="W28" s="107"/>
+      <c r="X28" s="107"/>
+      <c r="Y28" s="107"/>
+      <c r="Z28" s="107"/>
+      <c r="AA28" s="107"/>
+      <c r="AB28" s="107"/>
+      <c r="AC28" s="107"/>
+      <c r="AD28" s="107"/>
+      <c r="AE28" s="107"/>
+      <c r="AF28" s="107"/>
+    </row>
+    <row r="29" spans="2:32" ht="15" customHeight="1">
+      <c r="B29" s="107"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="C28" t="s">
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="107"/>
+      <c r="O29" s="107"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="107"/>
+      <c r="R29" s="107"/>
+      <c r="S29" s="107"/>
+      <c r="T29" s="107"/>
+      <c r="U29" s="107"/>
+      <c r="V29" s="107"/>
+      <c r="W29" s="107"/>
+      <c r="X29" s="107"/>
+      <c r="Y29" s="107"/>
+      <c r="Z29" s="107"/>
+      <c r="AA29" s="107"/>
+      <c r="AB29" s="107"/>
+      <c r="AC29" s="107"/>
+      <c r="AD29" s="107"/>
+      <c r="AE29" s="107"/>
+      <c r="AF29" s="107"/>
+    </row>
+    <row r="30" spans="2:32" ht="15" customHeight="1">
+      <c r="B30" s="107"/>
+      <c r="C30" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="107" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="C29" t="s">
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="107"/>
+      <c r="L30" s="107"/>
+      <c r="M30" s="107"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="107"/>
+      <c r="P30" s="107"/>
+      <c r="Q30" s="107"/>
+      <c r="R30" s="107"/>
+      <c r="S30" s="107"/>
+      <c r="T30" s="107"/>
+      <c r="U30" s="107"/>
+      <c r="V30" s="107"/>
+      <c r="W30" s="107"/>
+      <c r="X30" s="107"/>
+      <c r="Y30" s="107"/>
+      <c r="Z30" s="107"/>
+      <c r="AA30" s="107"/>
+      <c r="AB30" s="107"/>
+      <c r="AC30" s="107"/>
+      <c r="AD30" s="107"/>
+      <c r="AE30" s="107"/>
+      <c r="AF30" s="107"/>
+    </row>
+    <row r="31" spans="2:32" ht="15" customHeight="1">
+      <c r="B31" s="107"/>
+      <c r="C31" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="107" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" t="s">
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="107"/>
+      <c r="L31" s="107"/>
+      <c r="M31" s="107"/>
+      <c r="N31" s="107"/>
+      <c r="O31" s="107"/>
+      <c r="P31" s="107"/>
+      <c r="Q31" s="107"/>
+      <c r="R31" s="107"/>
+      <c r="S31" s="107"/>
+      <c r="T31" s="107"/>
+      <c r="U31" s="107"/>
+      <c r="V31" s="107"/>
+      <c r="W31" s="107"/>
+      <c r="X31" s="107"/>
+      <c r="Y31" s="107"/>
+      <c r="Z31" s="107"/>
+      <c r="AA31" s="107"/>
+      <c r="AB31" s="107"/>
+      <c r="AC31" s="107"/>
+      <c r="AD31" s="107"/>
+      <c r="AE31" s="107"/>
+      <c r="AF31" s="107"/>
+    </row>
+    <row r="32" spans="2:32" ht="15" customHeight="1">
+      <c r="B32" s="107"/>
+      <c r="C32" s="107" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="C32" t="s">
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="107"/>
+      <c r="N32" s="107"/>
+      <c r="O32" s="107"/>
+      <c r="P32" s="107"/>
+      <c r="Q32" s="107"/>
+      <c r="R32" s="107"/>
+      <c r="S32" s="107"/>
+      <c r="T32" s="107"/>
+      <c r="U32" s="107"/>
+      <c r="V32" s="107"/>
+      <c r="W32" s="107"/>
+      <c r="X32" s="107"/>
+      <c r="Y32" s="107"/>
+      <c r="Z32" s="107"/>
+      <c r="AA32" s="107"/>
+      <c r="AB32" s="107"/>
+      <c r="AC32" s="107"/>
+      <c r="AD32" s="107"/>
+      <c r="AE32" s="107"/>
+      <c r="AF32" s="107"/>
+    </row>
+    <row r="33" spans="2:32" ht="15" customHeight="1">
+      <c r="B33" s="107"/>
+      <c r="C33" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="107" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="C33" t="s">
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="107"/>
+      <c r="L33" s="107"/>
+      <c r="M33" s="107"/>
+      <c r="N33" s="107"/>
+      <c r="O33" s="107"/>
+      <c r="P33" s="107"/>
+      <c r="Q33" s="107"/>
+      <c r="R33" s="107"/>
+      <c r="S33" s="107"/>
+      <c r="T33" s="107"/>
+      <c r="U33" s="107"/>
+      <c r="V33" s="107"/>
+      <c r="W33" s="107"/>
+      <c r="X33" s="107"/>
+      <c r="Y33" s="107"/>
+      <c r="Z33" s="107"/>
+      <c r="AA33" s="107"/>
+      <c r="AB33" s="107"/>
+      <c r="AC33" s="107"/>
+      <c r="AD33" s="107"/>
+      <c r="AE33" s="107"/>
+      <c r="AF33" s="107"/>
+    </row>
+    <row r="34" spans="2:32" ht="15" customHeight="1">
+      <c r="B34" s="107"/>
+      <c r="C34" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" s="107" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="B37" s="81" t="s">
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="107"/>
+      <c r="L34" s="107"/>
+      <c r="M34" s="107"/>
+      <c r="N34" s="107"/>
+      <c r="O34" s="107"/>
+      <c r="P34" s="107"/>
+      <c r="Q34" s="107"/>
+      <c r="R34" s="107"/>
+      <c r="S34" s="107"/>
+      <c r="T34" s="107"/>
+      <c r="U34" s="107"/>
+      <c r="V34" s="107"/>
+      <c r="W34" s="107"/>
+      <c r="X34" s="107"/>
+      <c r="Y34" s="107"/>
+      <c r="Z34" s="107"/>
+      <c r="AA34" s="107"/>
+      <c r="AB34" s="107"/>
+      <c r="AC34" s="107"/>
+      <c r="AD34" s="107"/>
+      <c r="AE34" s="107"/>
+      <c r="AF34" s="107"/>
+    </row>
+    <row r="35" spans="2:32" ht="15" customHeight="1">
+      <c r="B35" s="107"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" s="107" t="s">
+        <v>157</v>
+      </c>
+      <c r="F35" s="107"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="107"/>
+      <c r="K35" s="107"/>
+      <c r="L35" s="107"/>
+      <c r="M35" s="107"/>
+      <c r="N35" s="107"/>
+      <c r="O35" s="107"/>
+      <c r="P35" s="107"/>
+      <c r="Q35" s="107"/>
+      <c r="R35" s="107"/>
+      <c r="S35" s="107"/>
+      <c r="T35" s="107"/>
+      <c r="U35" s="107"/>
+      <c r="V35" s="107"/>
+      <c r="W35" s="107"/>
+      <c r="X35" s="107"/>
+      <c r="Y35" s="107"/>
+      <c r="Z35" s="107"/>
+      <c r="AA35" s="107"/>
+      <c r="AB35" s="107"/>
+      <c r="AC35" s="107"/>
+      <c r="AD35" s="107"/>
+      <c r="AE35" s="107"/>
+      <c r="AF35" s="107"/>
+    </row>
+    <row r="36" spans="2:32" ht="15" customHeight="1">
+      <c r="B36" s="107"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="107"/>
+      <c r="L36" s="107"/>
+      <c r="M36" s="107"/>
+      <c r="N36" s="107"/>
+      <c r="O36" s="107"/>
+      <c r="P36" s="107"/>
+      <c r="Q36" s="107"/>
+      <c r="R36" s="107"/>
+      <c r="S36" s="107"/>
+      <c r="T36" s="107"/>
+      <c r="U36" s="107"/>
+      <c r="V36" s="107"/>
+      <c r="W36" s="107"/>
+      <c r="X36" s="107"/>
+      <c r="Y36" s="107"/>
+      <c r="Z36" s="107"/>
+      <c r="AA36" s="107"/>
+      <c r="AB36" s="107"/>
+      <c r="AC36" s="107"/>
+      <c r="AD36" s="107"/>
+      <c r="AE36" s="107"/>
+      <c r="AF36" s="107"/>
+    </row>
+    <row r="37" spans="2:32" ht="15" customHeight="1">
+      <c r="B37" s="107" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="107"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="107"/>
+      <c r="L37" s="107"/>
+      <c r="M37" s="107"/>
+      <c r="N37" s="107"/>
+      <c r="O37" s="107"/>
+      <c r="P37" s="107"/>
+      <c r="Q37" s="107"/>
+      <c r="R37" s="107"/>
+      <c r="S37" s="107"/>
+      <c r="T37" s="107"/>
+      <c r="U37" s="107"/>
+      <c r="V37" s="107"/>
+      <c r="W37" s="107"/>
+      <c r="X37" s="107"/>
+      <c r="Y37" s="107"/>
+      <c r="Z37" s="107"/>
+      <c r="AA37" s="107"/>
+      <c r="AB37" s="107"/>
+      <c r="AC37" s="107"/>
+      <c r="AD37" s="107"/>
+      <c r="AE37" s="107"/>
+      <c r="AF37" s="107"/>
+    </row>
+    <row r="38" spans="2:32" ht="15" customHeight="1">
+      <c r="B38" s="107" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="15">
-      <c r="B38" s="82" t="s">
+      <c r="C38" s="107"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="107"/>
+      <c r="K38" s="107"/>
+      <c r="L38" s="107"/>
+      <c r="M38" s="107"/>
+      <c r="N38" s="107"/>
+      <c r="O38" s="107"/>
+      <c r="P38" s="107"/>
+      <c r="Q38" s="107"/>
+      <c r="R38" s="107"/>
+      <c r="S38" s="107"/>
+      <c r="T38" s="107"/>
+      <c r="U38" s="107"/>
+      <c r="V38" s="107"/>
+      <c r="W38" s="107"/>
+      <c r="X38" s="107"/>
+      <c r="Y38" s="107"/>
+      <c r="Z38" s="107"/>
+      <c r="AA38" s="107"/>
+      <c r="AB38" s="107"/>
+      <c r="AC38" s="107"/>
+      <c r="AD38" s="107"/>
+      <c r="AE38" s="107"/>
+      <c r="AF38" s="107"/>
+    </row>
+    <row r="39" spans="2:32" ht="15" customHeight="1">
+      <c r="B39" s="107"/>
+      <c r="C39" s="109" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" s="107"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="107"/>
+      <c r="L39" s="107"/>
+      <c r="M39" s="107"/>
+      <c r="N39" s="107"/>
+      <c r="O39" s="107"/>
+      <c r="P39" s="107"/>
+      <c r="Q39" s="107"/>
+      <c r="R39" s="107"/>
+      <c r="S39" s="107"/>
+      <c r="T39" s="107"/>
+      <c r="U39" s="107"/>
+      <c r="V39" s="107"/>
+      <c r="W39" s="107"/>
+      <c r="X39" s="107"/>
+      <c r="Y39" s="107"/>
+      <c r="Z39" s="107"/>
+      <c r="AA39" s="107"/>
+      <c r="AB39" s="107"/>
+      <c r="AC39" s="107"/>
+      <c r="AD39" s="107"/>
+      <c r="AE39" s="107"/>
+      <c r="AF39" s="107"/>
+    </row>
+    <row r="40" spans="2:32" ht="15" customHeight="1">
+      <c r="B40" s="107"/>
+      <c r="C40" s="109" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="107"/>
+      <c r="K40" s="107"/>
+      <c r="L40" s="107"/>
+      <c r="M40" s="107"/>
+      <c r="N40" s="107"/>
+      <c r="O40" s="107"/>
+      <c r="P40" s="107"/>
+      <c r="Q40" s="107"/>
+      <c r="R40" s="107"/>
+      <c r="S40" s="107"/>
+      <c r="T40" s="107"/>
+      <c r="U40" s="107"/>
+      <c r="V40" s="107"/>
+      <c r="W40" s="107"/>
+      <c r="X40" s="107"/>
+      <c r="Y40" s="107"/>
+      <c r="Z40" s="107"/>
+      <c r="AA40" s="107"/>
+      <c r="AB40" s="107"/>
+      <c r="AC40" s="107"/>
+      <c r="AD40" s="107"/>
+      <c r="AE40" s="107"/>
+      <c r="AF40" s="107"/>
+    </row>
+    <row r="41" spans="2:32" ht="15" customHeight="1">
+      <c r="B41" s="107"/>
+      <c r="C41" s="109" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="107"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="107"/>
+      <c r="L41" s="107"/>
+      <c r="M41" s="107"/>
+      <c r="N41" s="107"/>
+      <c r="O41" s="107"/>
+      <c r="P41" s="107"/>
+      <c r="Q41" s="107"/>
+      <c r="R41" s="107"/>
+      <c r="S41" s="107"/>
+      <c r="T41" s="107"/>
+      <c r="U41" s="107"/>
+      <c r="V41" s="107"/>
+      <c r="W41" s="107"/>
+      <c r="X41" s="107"/>
+      <c r="Y41" s="107"/>
+      <c r="Z41" s="107"/>
+      <c r="AA41" s="107"/>
+      <c r="AB41" s="107"/>
+      <c r="AC41" s="107"/>
+      <c r="AD41" s="107"/>
+      <c r="AE41" s="107"/>
+      <c r="AF41" s="107"/>
+    </row>
+    <row r="42" spans="2:32" ht="15" customHeight="1">
+      <c r="B42" s="107"/>
+      <c r="C42" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="107"/>
+      <c r="L42" s="107"/>
+      <c r="M42" s="107"/>
+      <c r="N42" s="107"/>
+      <c r="O42" s="107"/>
+      <c r="P42" s="107"/>
+      <c r="Q42" s="107"/>
+      <c r="R42" s="107"/>
+      <c r="S42" s="107"/>
+      <c r="T42" s="107"/>
+      <c r="U42" s="107"/>
+      <c r="V42" s="107"/>
+      <c r="W42" s="107"/>
+      <c r="X42" s="107"/>
+      <c r="Y42" s="107"/>
+      <c r="Z42" s="107"/>
+      <c r="AA42" s="107"/>
+      <c r="AB42" s="107"/>
+      <c r="AC42" s="107"/>
+      <c r="AD42" s="107"/>
+      <c r="AE42" s="107"/>
+      <c r="AF42" s="107"/>
+    </row>
+    <row r="43" spans="2:32" ht="15" customHeight="1">
+      <c r="B43" s="107" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="B39" s="81" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="B40" s="81" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="B41" s="81" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="B43" t="s">
-        <v>149</v>
-      </c>
+      <c r="C43" s="107"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="107"/>
+      <c r="K43" s="107"/>
+      <c r="L43" s="107"/>
+      <c r="M43" s="107"/>
+      <c r="N43" s="107"/>
+      <c r="O43" s="107"/>
+      <c r="P43" s="107"/>
+      <c r="Q43" s="107"/>
+      <c r="R43" s="107"/>
+      <c r="S43" s="107"/>
+      <c r="T43" s="107"/>
+      <c r="U43" s="107"/>
+      <c r="V43" s="107"/>
+      <c r="W43" s="107"/>
+      <c r="X43" s="107"/>
+      <c r="Y43" s="107"/>
+      <c r="Z43" s="107"/>
+      <c r="AA43" s="107"/>
+      <c r="AB43" s="107"/>
+      <c r="AC43" s="107"/>
+      <c r="AD43" s="107"/>
+      <c r="AE43" s="107"/>
+      <c r="AF43" s="107"/>
+    </row>
+    <row r="44" spans="2:32" ht="15" customHeight="1">
+      <c r="B44" s="107"/>
+      <c r="C44" s="107" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="107"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="107"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="107"/>
+      <c r="K44" s="107"/>
+      <c r="L44" s="107"/>
+      <c r="M44" s="107"/>
+      <c r="N44" s="107"/>
+      <c r="O44" s="107"/>
+      <c r="P44" s="107"/>
+      <c r="Q44" s="107"/>
+      <c r="R44" s="107"/>
+      <c r="S44" s="107"/>
+      <c r="T44" s="107"/>
+      <c r="U44" s="107"/>
+      <c r="V44" s="107"/>
+      <c r="W44" s="107"/>
+      <c r="X44" s="107"/>
+      <c r="Y44" s="107"/>
+      <c r="Z44" s="107"/>
+      <c r="AA44" s="107"/>
+      <c r="AB44" s="107"/>
+      <c r="AC44" s="107"/>
+      <c r="AD44" s="107"/>
+      <c r="AE44" s="107"/>
+      <c r="AF44" s="107"/>
+    </row>
+    <row r="45" spans="2:32" ht="15" customHeight="1">
+      <c r="D45" s="107"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="107"/>
+      <c r="G45" s="107"/>
+      <c r="H45" s="107"/>
+      <c r="I45" s="107"/>
+      <c r="J45" s="107"/>
+      <c r="K45" s="107"/>
+      <c r="L45" s="107"/>
+      <c r="M45" s="107"/>
+      <c r="N45" s="107"/>
+      <c r="O45" s="107"/>
+      <c r="P45" s="107"/>
+      <c r="Q45" s="107"/>
+      <c r="R45" s="107"/>
+      <c r="S45" s="107"/>
+      <c r="T45" s="107"/>
+      <c r="U45" s="107"/>
+      <c r="V45" s="107"/>
+      <c r="W45" s="107"/>
+      <c r="X45" s="107"/>
+      <c r="Y45" s="107"/>
+      <c r="Z45" s="107"/>
+      <c r="AA45" s="107"/>
+      <c r="AB45" s="107"/>
+      <c r="AC45" s="107"/>
+      <c r="AD45" s="107"/>
+      <c r="AE45" s="107"/>
+      <c r="AF45" s="107"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -3925,7 +6052,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="14"/>
@@ -4025,33 +6152,33 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1">
       <c r="A14" s="45" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="I14" s="45"/>
     </row>
@@ -4084,7 +6211,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="46" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="91" customHeight="1">
@@ -4092,31 +6219,31 @@
         <v>35</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="C16" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="42" t="s">
-        <v>65</v>
-      </c>
       <c r="H16" s="43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I16" s="40">
         <v>2</v>
       </c>
       <c r="J16" s="47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="91" customHeight="1">
@@ -4124,31 +6251,31 @@
         <v>36</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G17" s="44" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H17" s="48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I17" s="40">
         <v>3</v>
       </c>
       <c r="J17" s="47" t="s">
-        <v>75</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="91" customHeight="1">
@@ -4156,31 +6283,31 @@
         <v>37</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H18" s="43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I18" s="40">
         <v>4</v>
       </c>
       <c r="J18" s="47" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="91" customHeight="1">
@@ -4188,31 +6315,31 @@
         <v>38</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I19" s="40">
         <v>5</v>
       </c>
       <c r="J19" s="47" t="s">
-        <v>77</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="91" customHeight="1" thickBot="1">
@@ -4220,62 +6347,62 @@
         <v>39</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G20" s="50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H20" s="51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I20" s="40">
         <v>6</v>
       </c>
       <c r="J20" s="47" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:10" customFormat="1" ht="56" customHeight="1">
       <c r="A22" s="76" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="B22" s="75" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C22" s="77" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D22" s="77" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="E22" s="77" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="F22" s="77" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="G22" s="77" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="H22" s="77" t="s">
-        <v>127</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="3" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4293,7 +6420,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="14"/>
@@ -4392,33 +6519,33 @@
     </row>
     <row r="12" spans="1:10" s="22" customFormat="1">
       <c r="A12" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="22" customFormat="1">
       <c r="A13" s="45" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="H13" s="45" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="I13" s="45"/>
     </row>
@@ -4451,7 +6578,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="46" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="90">
@@ -4459,31 +6586,31 @@
         <v>28</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G15" s="71" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H15" s="73" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I15" s="40">
         <v>2</v>
       </c>
       <c r="J15" s="47" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="82" customHeight="1">
@@ -4491,31 +6618,31 @@
         <v>29</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G16" s="71" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H16" s="73" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I16" s="40">
         <v>3</v>
       </c>
       <c r="J16" s="47" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="82" customHeight="1">
@@ -4523,31 +6650,31 @@
         <v>30</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G17" s="71" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H17" s="73" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I17" s="40">
         <v>4</v>
       </c>
       <c r="J17" s="47" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="82" customHeight="1">
@@ -4555,31 +6682,31 @@
         <v>31</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G18" s="71" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H18" s="73" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I18" s="40">
         <v>5</v>
       </c>
       <c r="J18" s="47" t="s">
-        <v>95</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="90" customHeight="1">
@@ -4587,62 +6714,62 @@
         <v>32</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G19" s="72" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H19" s="74" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I19" s="40">
         <v>6</v>
       </c>
       <c r="J19" s="47" t="s">
-        <v>96</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="61" customHeight="1">
       <c r="A21" s="76" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="B21" s="75" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C21" s="77" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D21" s="77" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="E21" s="77" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="F21" s="77" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="G21" s="77" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="H21" s="77" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="3" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4659,7 +6786,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="14"/>
@@ -4692,7 +6819,7 @@
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
@@ -4702,7 +6829,7 @@
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="80"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -4712,7 +6839,7 @@
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="80"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -4720,27 +6847,27 @@
     </row>
     <row r="12" spans="1:9" s="22" customFormat="1">
       <c r="A12" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="22" customFormat="1">
       <c r="A13" s="45" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -4769,7 +6896,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="46" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="89" customHeight="1">
@@ -4777,25 +6904,25 @@
         <v>21</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E15" s="66" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F15" s="66" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G15" s="78">
         <v>2</v>
       </c>
       <c r="H15" s="68" t="s">
-        <v>105</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="89" customHeight="1">
@@ -4803,25 +6930,25 @@
         <v>22</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E16" s="69" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F16" s="69" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="G16" s="78">
         <v>3</v>
       </c>
       <c r="H16" s="68" t="s">
-        <v>103</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="89" customHeight="1">
@@ -4829,25 +6956,25 @@
         <v>23</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E17" s="69" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F17" s="69" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G17" s="78">
         <v>4</v>
       </c>
       <c r="H17" s="68" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4861,27 +6988,27 @@
     </row>
     <row r="19" spans="1:8" ht="30">
       <c r="A19" s="76" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="B19" s="75" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D19" s="77" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E19" s="77" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="F19" s="77" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4898,7 +7025,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="14"/>
@@ -4932,9 +7059,9 @@
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="80"/>
+        <v>110</v>
+      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -4945,7 +7072,7 @@
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="80"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -4956,7 +7083,7 @@
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="80"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -4965,30 +7092,30 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="45" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="H11" s="45"/>
       <c r="I11" s="22"/>
@@ -5009,46 +7136,46 @@
       <c r="E12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="83" t="s">
+      <c r="F12" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="84" t="s">
+      <c r="G12" s="81" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="40">
         <v>1</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="90">
       <c r="A13" s="52" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="F13" s="79" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="G13" s="66" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="H13" s="40">
         <v>2</v>
       </c>
       <c r="I13" s="47" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="45">
@@ -5056,28 +7183,28 @@
         <v>18</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="F14" s="79" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="G14" s="66" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="H14" s="40">
         <v>3</v>
       </c>
       <c r="I14" s="47" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45">
@@ -5085,56 +7212,56 @@
         <v>17</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="F15" s="79" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="G15" s="66" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="H15" s="40">
         <v>4</v>
       </c>
       <c r="I15" s="47" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30">
       <c r="A17" s="76" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C17" s="77" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="D17" s="77" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="E17" s="77" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="F17" s="77" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="G17" s="77" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -5150,293 +7277,293 @@
   </sheetPr>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.1640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="6" width="25.1640625" style="97"/>
-    <col min="7" max="7" width="25.1640625" style="102"/>
-    <col min="8" max="10" width="25.1640625" style="97"/>
-    <col min="11" max="11" width="25.1640625" style="101"/>
-    <col min="12" max="13" width="25.1640625" style="97"/>
-    <col min="14" max="14" width="5.83203125" style="88" customWidth="1"/>
-    <col min="15" max="16384" width="25.1640625" style="88"/>
+    <col min="1" max="6" width="25.1640625" style="94"/>
+    <col min="7" max="7" width="25.1640625" style="99"/>
+    <col min="8" max="10" width="25.1640625" style="94"/>
+    <col min="11" max="11" width="25.1640625" style="98"/>
+    <col min="12" max="13" width="25.1640625" style="94"/>
+    <col min="14" max="14" width="5.83203125" style="85" customWidth="1"/>
+    <col min="15" max="16384" width="25.1640625" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="24" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="85" t="s">
+      <c r="I1" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="87" t="s">
+      <c r="K1" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="85" t="s">
+      <c r="L1" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="85" t="s">
+      <c r="M1" s="82" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="24" customHeight="1">
-      <c r="A2" s="89"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="97"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
+      <c r="A10" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="94"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="98" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="98" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="98" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" s="98" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" s="98" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="98" t="s">
-        <v>116</v>
-      </c>
-      <c r="H11" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11" s="98" t="s">
-        <v>111</v>
-      </c>
-      <c r="J11" s="98" t="s">
-        <v>112</v>
-      </c>
-      <c r="K11" s="98" t="s">
-        <v>113</v>
-      </c>
-      <c r="L11" s="98" t="s">
-        <v>114</v>
-      </c>
-      <c r="M11" s="98" t="s">
-        <v>115</v>
+      <c r="A11" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="95" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="95" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="95" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="M11" s="95" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="24" customHeight="1">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="103" t="s">
+      <c r="E12" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="105" t="s">
+      <c r="F12" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="106" t="s">
+      <c r="G12" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="105" t="s">
+      <c r="H12" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="105" t="s">
+      <c r="I12" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="105" t="s">
+      <c r="J12" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="107" t="s">
+      <c r="K12" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="105" t="s">
+      <c r="L12" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="105" t="s">
+      <c r="M12" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="96">
+      <c r="N12" s="93">
         <v>1</v>
       </c>
       <c r="O12" s="46" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="126" customHeight="1">
-      <c r="A13" s="99" t="s">
-        <v>182</v>
-      </c>
-      <c r="B13" s="99" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="99" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" s="99" t="s">
-        <v>154</v>
-      </c>
-      <c r="E13" s="104" t="s">
-        <v>163</v>
-      </c>
-      <c r="F13" s="108" t="s">
-        <v>164</v>
-      </c>
-      <c r="G13" s="108" t="s">
-        <v>165</v>
-      </c>
-      <c r="H13" s="108" t="s">
-        <v>166</v>
-      </c>
-      <c r="I13" s="108" t="s">
-        <v>167</v>
-      </c>
-      <c r="J13" s="108" t="s">
-        <v>170</v>
+      <c r="A13" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="96" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="105" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="105" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="105" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" s="105" t="s">
+        <v>138</v>
       </c>
       <c r="K13" s="66" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="L13" s="66" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="M13" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="N13" s="93">
+        <v>2</v>
+      </c>
+      <c r="O13" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="N13" s="96">
-        <v>2</v>
-      </c>
-      <c r="O13" s="47" t="s">
-        <v>176</v>
-      </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="F14" s="102"/>
-      <c r="G14" s="97"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="97"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="97"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="94"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="94"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="94"/>
     </row>
     <row r="15" spans="1:15" ht="54" customHeight="1">
       <c r="A15" s="77" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="D15" s="77" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="E15" s="77" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="F15" s="77" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G15" s="77" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H15" s="77" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I15" s="77" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J15" s="77" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K15" s="77" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L15" s="77" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="M15" s="77" t="s">
-        <v>122</v>
-      </c>
-      <c r="O15" s="100" t="s">
-        <v>157</v>
+        <v>168</v>
+      </c>
+      <c r="O15" s="97" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="G16" s="97"/>
+      <c r="G16" s="94"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="97" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" s="97"/>
+      <c r="A17" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="94"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="97" t="s">
-        <v>174</v>
+      <c r="A18" s="94" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="97" t="s">
-        <v>175</v>
+      <c r="A19" s="94" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/INPUT/excel/エクセル説明.xlsx
+++ b/INPUT/excel/エクセル説明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kibakun/Documents/GitHub/2024start/Excel2MaiML2/setting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{12E002FD-A904-8B44-BC76-A43413A1D5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78F0EC8-70C3-0147-B550-7BB31D328269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="2460" windowWidth="37900" windowHeight="25240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12400" yWindow="2460" windowWidth="37900" windowHeight="25240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="【入力エクセルの説明】" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="TEMPLATE" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="192">
   <si>
     <t>TEMPLATEID</t>
   </si>
@@ -117,9 +116,6 @@
   </si>
   <si>
     <t>UUID</t>
-  </si>
-  <si>
-    <t>PROGRAMID</t>
   </si>
   <si>
     <t>TRANSITIONREF</t>
@@ -3371,6 +3367,66 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RARENTID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;program&gt;要素を記載する親要素である&lt;method&gt;要素のid属性の値を記載する。記載がない場合は、実行エラーとなりプログラムが終了する。</t>
+    <rPh sb="9" eb="11">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;pnml&gt;要素を記載する親要素である&lt;method&gt;要素のid属性の値を記載する。記載がない場合は、実行エラーとなりプログラムが終了する。</t>
+    <rPh sb="6" eb="8">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>キサイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -4049,9 +4105,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4193,11 +4246,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4500,1544 +4558,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043FA22D-BE93-FD48-8E6E-15BF7383CE53}">
-  <dimension ref="A1:AF45"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:32" ht="17">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:4" ht="17">
+      <c r="A1" s="105" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1">
+      <c r="B3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1">
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1">
+      <c r="C5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1">
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1"/>
+    <row r="8" spans="1:4" ht="15" customHeight="1">
+      <c r="B8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1">
+      <c r="C9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="15" customHeight="1">
-      <c r="B3" s="107" t="s">
+    <row r="10" spans="1:4" ht="15" customHeight="1">
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1">
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1"/>
+    <row r="13" spans="1:4" ht="15" customHeight="1">
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1">
+      <c r="C14" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1">
+      <c r="C15" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1">
+      <c r="C16" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
-      <c r="U3" s="107"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="107"/>
-      <c r="X3" s="107"/>
-      <c r="Y3" s="107"/>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="107"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="107"/>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="107"/>
-    </row>
-    <row r="4" spans="1:32" ht="15" customHeight="1">
-      <c r="B4" s="107" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="107"/>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="107"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="107"/>
-      <c r="AF4" s="107"/>
-    </row>
-    <row r="5" spans="1:32" ht="15" customHeight="1">
-      <c r="B5" s="107"/>
-      <c r="C5" s="107" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="107"/>
-      <c r="AF5" s="107"/>
-    </row>
-    <row r="6" spans="1:32" ht="15" customHeight="1">
-      <c r="B6" s="107"/>
-      <c r="C6" s="107" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="107"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="107"/>
-      <c r="V6" s="107"/>
-      <c r="W6" s="107"/>
-      <c r="X6" s="107"/>
-      <c r="Y6" s="107"/>
-      <c r="Z6" s="107"/>
-      <c r="AA6" s="107"/>
-      <c r="AB6" s="107"/>
-      <c r="AC6" s="107"/>
-      <c r="AD6" s="107"/>
-      <c r="AE6" s="107"/>
-      <c r="AF6" s="107"/>
-    </row>
-    <row r="7" spans="1:32" ht="15" customHeight="1">
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="107"/>
-      <c r="Z7" s="107"/>
-      <c r="AA7" s="107"/>
-      <c r="AB7" s="107"/>
-      <c r="AC7" s="107"/>
-      <c r="AD7" s="107"/>
-      <c r="AE7" s="107"/>
-      <c r="AF7" s="107"/>
-    </row>
-    <row r="8" spans="1:32" ht="15" customHeight="1">
-      <c r="B8" s="107" t="s">
+    </row>
+    <row r="17" spans="3:5" ht="15" customHeight="1">
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="15" customHeight="1">
+      <c r="C18" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="15" customHeight="1">
+      <c r="C19" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="15" customHeight="1">
+      <c r="C20" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="15" customHeight="1">
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="15" customHeight="1">
+      <c r="C22" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="15" customHeight="1">
+      <c r="C23" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="15" customHeight="1">
+      <c r="C24" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="15" customHeight="1">
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="15" customHeight="1">
+      <c r="C26" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="15" customHeight="1">
+      <c r="E27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="15" customHeight="1">
+      <c r="E28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="15" customHeight="1">
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="15" customHeight="1">
+      <c r="C30" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" ht="15" customHeight="1">
+      <c r="C31" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" ht="15" customHeight="1">
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="15" customHeight="1">
+      <c r="C33" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="15" customHeight="1">
+      <c r="C34" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="15" customHeight="1">
+      <c r="D35" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="15" customHeight="1">
+      <c r="D36" s="106"/>
+    </row>
+    <row r="37" spans="2:5" ht="15" customHeight="1">
+      <c r="B37" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="107"/>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="107"/>
-      <c r="Z8" s="107"/>
-      <c r="AA8" s="107"/>
-      <c r="AB8" s="107"/>
-      <c r="AC8" s="107"/>
-      <c r="AD8" s="107"/>
-      <c r="AE8" s="107"/>
-      <c r="AF8" s="107"/>
-    </row>
-    <row r="9" spans="1:32" ht="15" customHeight="1">
-      <c r="B9" s="107"/>
-      <c r="C9" s="107" t="s">
-        <v>148</v>
-      </c>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="107"/>
-      <c r="U9" s="107"/>
-      <c r="V9" s="107"/>
-      <c r="W9" s="107"/>
-      <c r="X9" s="107"/>
-      <c r="Y9" s="107"/>
-      <c r="Z9" s="107"/>
-      <c r="AA9" s="107"/>
-      <c r="AB9" s="107"/>
-      <c r="AC9" s="107"/>
-      <c r="AD9" s="107"/>
-      <c r="AE9" s="107"/>
-      <c r="AF9" s="107"/>
-    </row>
-    <row r="10" spans="1:32" ht="15" customHeight="1">
-      <c r="B10" s="107"/>
-      <c r="C10" s="107" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="107"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="107"/>
-      <c r="R10" s="107"/>
-      <c r="S10" s="107"/>
-      <c r="T10" s="107"/>
-      <c r="U10" s="107"/>
-      <c r="V10" s="107"/>
-      <c r="W10" s="107"/>
-      <c r="X10" s="107"/>
-      <c r="Y10" s="107"/>
-      <c r="Z10" s="107"/>
-      <c r="AA10" s="107"/>
-      <c r="AB10" s="107"/>
-      <c r="AC10" s="107"/>
-      <c r="AD10" s="107"/>
-      <c r="AE10" s="107"/>
-      <c r="AF10" s="107"/>
-    </row>
-    <row r="11" spans="1:32" ht="15" customHeight="1">
-      <c r="B11" s="107"/>
-      <c r="C11" s="107" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="107"/>
-      <c r="M11" s="107"/>
-      <c r="N11" s="107"/>
-      <c r="O11" s="107"/>
-      <c r="P11" s="107"/>
-      <c r="Q11" s="107"/>
-      <c r="R11" s="107"/>
-      <c r="S11" s="107"/>
-      <c r="T11" s="107"/>
-      <c r="U11" s="107"/>
-      <c r="V11" s="107"/>
-      <c r="W11" s="107"/>
-      <c r="X11" s="107"/>
-      <c r="Y11" s="107"/>
-      <c r="Z11" s="107"/>
-      <c r="AA11" s="107"/>
-      <c r="AB11" s="107"/>
-      <c r="AC11" s="107"/>
-      <c r="AD11" s="107"/>
-      <c r="AE11" s="107"/>
-      <c r="AF11" s="107"/>
-    </row>
-    <row r="12" spans="1:32" ht="15" customHeight="1">
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="107"/>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="107"/>
-      <c r="R12" s="107"/>
-      <c r="S12" s="107"/>
-      <c r="T12" s="107"/>
-      <c r="U12" s="107"/>
-      <c r="V12" s="107"/>
-      <c r="W12" s="107"/>
-      <c r="X12" s="107"/>
-      <c r="Y12" s="107"/>
-      <c r="Z12" s="107"/>
-      <c r="AA12" s="107"/>
-      <c r="AB12" s="107"/>
-      <c r="AC12" s="107"/>
-      <c r="AD12" s="107"/>
-      <c r="AE12" s="107"/>
-      <c r="AF12" s="107"/>
-    </row>
-    <row r="13" spans="1:32" ht="15" customHeight="1">
-      <c r="B13" s="107"/>
-      <c r="C13" s="107" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="107"/>
-      <c r="O13" s="107"/>
-      <c r="P13" s="107"/>
-      <c r="Q13" s="107"/>
-      <c r="R13" s="107"/>
-      <c r="S13" s="107"/>
-      <c r="T13" s="107"/>
-      <c r="U13" s="107"/>
-      <c r="V13" s="107"/>
-      <c r="W13" s="107"/>
-      <c r="X13" s="107"/>
-      <c r="Y13" s="107"/>
-      <c r="Z13" s="107"/>
-      <c r="AA13" s="107"/>
-      <c r="AB13" s="107"/>
-      <c r="AC13" s="107"/>
-      <c r="AD13" s="107"/>
-      <c r="AE13" s="107"/>
-      <c r="AF13" s="107"/>
-    </row>
-    <row r="14" spans="1:32" ht="15" customHeight="1">
-      <c r="B14" s="107"/>
-      <c r="C14" s="108" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="107" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="107"/>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="107"/>
-      <c r="R14" s="107"/>
-      <c r="S14" s="107"/>
-      <c r="T14" s="107"/>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="107"/>
-      <c r="X14" s="107"/>
-      <c r="Y14" s="107"/>
-      <c r="Z14" s="107"/>
-      <c r="AA14" s="107"/>
-      <c r="AB14" s="107"/>
-      <c r="AC14" s="107"/>
-      <c r="AD14" s="107"/>
-      <c r="AE14" s="107"/>
-      <c r="AF14" s="107"/>
-    </row>
-    <row r="15" spans="1:32" ht="15" customHeight="1">
-      <c r="B15" s="107"/>
-      <c r="C15" s="108" t="s">
-        <v>149</v>
-      </c>
-      <c r="D15" s="107" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="107"/>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="107"/>
-      <c r="R15" s="107"/>
-      <c r="S15" s="107"/>
-      <c r="T15" s="107"/>
-      <c r="U15" s="107"/>
-      <c r="V15" s="107"/>
-      <c r="W15" s="107"/>
-      <c r="X15" s="107"/>
-      <c r="Y15" s="107"/>
-      <c r="Z15" s="107"/>
-      <c r="AA15" s="107"/>
-      <c r="AB15" s="107"/>
-      <c r="AC15" s="107"/>
-      <c r="AD15" s="107"/>
-      <c r="AE15" s="107"/>
-      <c r="AF15" s="107"/>
-    </row>
-    <row r="16" spans="1:32" ht="15" customHeight="1">
-      <c r="B16" s="107"/>
-      <c r="C16" s="108" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="107" t="s">
+    </row>
+    <row r="38" spans="2:5" ht="15" customHeight="1">
+      <c r="B38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="15" customHeight="1">
+      <c r="C39" s="107" t="s">
         <v>157</v>
       </c>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="107"/>
-      <c r="R16" s="107"/>
-      <c r="S16" s="107"/>
-      <c r="T16" s="107"/>
-      <c r="U16" s="107"/>
-      <c r="V16" s="107"/>
-      <c r="W16" s="107"/>
-      <c r="X16" s="107"/>
-      <c r="Y16" s="107"/>
-      <c r="Z16" s="107"/>
-      <c r="AA16" s="107"/>
-      <c r="AB16" s="107"/>
-      <c r="AC16" s="107"/>
-      <c r="AD16" s="107"/>
-      <c r="AE16" s="107"/>
-      <c r="AF16" s="107"/>
-    </row>
-    <row r="17" spans="2:32" ht="15" customHeight="1">
-      <c r="B17" s="107"/>
-      <c r="C17" s="107" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="107"/>
-      <c r="O17" s="107"/>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="107"/>
-      <c r="R17" s="107"/>
-      <c r="S17" s="107"/>
-      <c r="T17" s="107"/>
-      <c r="U17" s="107"/>
-      <c r="V17" s="107"/>
-      <c r="W17" s="107"/>
-      <c r="X17" s="107"/>
-      <c r="Y17" s="107"/>
-      <c r="Z17" s="107"/>
-      <c r="AA17" s="107"/>
-      <c r="AB17" s="107"/>
-      <c r="AC17" s="107"/>
-      <c r="AD17" s="107"/>
-      <c r="AE17" s="107"/>
-      <c r="AF17" s="107"/>
-    </row>
-    <row r="18" spans="2:32" ht="15" customHeight="1">
-      <c r="B18" s="107"/>
-      <c r="C18" s="108" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="107" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="107"/>
-      <c r="R18" s="107"/>
-      <c r="S18" s="107"/>
-      <c r="T18" s="107"/>
-      <c r="U18" s="107"/>
-      <c r="V18" s="107"/>
-      <c r="W18" s="107"/>
-      <c r="X18" s="107"/>
-      <c r="Y18" s="107"/>
-      <c r="Z18" s="107"/>
-      <c r="AA18" s="107"/>
-      <c r="AB18" s="107"/>
-      <c r="AC18" s="107"/>
-      <c r="AD18" s="107"/>
-      <c r="AE18" s="107"/>
-      <c r="AF18" s="107"/>
-    </row>
-    <row r="19" spans="2:32" ht="15" customHeight="1">
-      <c r="B19" s="107"/>
-      <c r="C19" s="108" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="107"/>
-      <c r="R19" s="107"/>
-      <c r="S19" s="107"/>
-      <c r="T19" s="107"/>
-      <c r="U19" s="107"/>
-      <c r="V19" s="107"/>
-      <c r="W19" s="107"/>
-      <c r="X19" s="107"/>
-      <c r="Y19" s="107"/>
-      <c r="Z19" s="107"/>
-      <c r="AA19" s="107"/>
-      <c r="AB19" s="107"/>
-      <c r="AC19" s="107"/>
-      <c r="AD19" s="107"/>
-      <c r="AE19" s="107"/>
-      <c r="AF19" s="107"/>
-    </row>
-    <row r="20" spans="2:32" ht="15" customHeight="1">
-      <c r="B20" s="107"/>
-      <c r="C20" s="108" t="s">
-        <v>149</v>
-      </c>
-      <c r="D20" s="107" t="s">
-        <v>157</v>
-      </c>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="107"/>
-      <c r="O20" s="107"/>
-      <c r="P20" s="107"/>
-      <c r="Q20" s="107"/>
-      <c r="R20" s="107"/>
-      <c r="S20" s="107"/>
-      <c r="T20" s="107"/>
-      <c r="U20" s="107"/>
-      <c r="V20" s="107"/>
-      <c r="W20" s="107"/>
-      <c r="X20" s="107"/>
-      <c r="Y20" s="107"/>
-      <c r="Z20" s="107"/>
-      <c r="AA20" s="107"/>
-      <c r="AB20" s="107"/>
-      <c r="AC20" s="107"/>
-      <c r="AD20" s="107"/>
-      <c r="AE20" s="107"/>
-      <c r="AF20" s="107"/>
-    </row>
-    <row r="21" spans="2:32" ht="15" customHeight="1">
-      <c r="B21" s="107"/>
-      <c r="C21" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
-      <c r="S21" s="107"/>
-      <c r="T21" s="107"/>
-      <c r="U21" s="107"/>
-      <c r="V21" s="107"/>
-      <c r="W21" s="107"/>
-      <c r="X21" s="107"/>
-      <c r="Y21" s="107"/>
-      <c r="Z21" s="107"/>
-      <c r="AA21" s="107"/>
-      <c r="AB21" s="107"/>
-      <c r="AC21" s="107"/>
-      <c r="AD21" s="107"/>
-      <c r="AE21" s="107"/>
-      <c r="AF21" s="107"/>
-    </row>
-    <row r="22" spans="2:32" ht="15" customHeight="1">
-      <c r="B22" s="107"/>
-      <c r="C22" s="108" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="107" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="107"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="107"/>
-      <c r="R22" s="107"/>
-      <c r="S22" s="107"/>
-      <c r="T22" s="107"/>
-      <c r="U22" s="107"/>
-      <c r="V22" s="107"/>
-      <c r="W22" s="107"/>
-      <c r="X22" s="107"/>
-      <c r="Y22" s="107"/>
-      <c r="Z22" s="107"/>
-      <c r="AA22" s="107"/>
-      <c r="AB22" s="107"/>
-      <c r="AC22" s="107"/>
-      <c r="AD22" s="107"/>
-      <c r="AE22" s="107"/>
-      <c r="AF22" s="107"/>
-    </row>
-    <row r="23" spans="2:32" ht="15" customHeight="1">
-      <c r="B23" s="107"/>
-      <c r="C23" s="108" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="107" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="107"/>
-      <c r="L23" s="107"/>
-      <c r="M23" s="107"/>
-      <c r="N23" s="107"/>
-      <c r="O23" s="107"/>
-      <c r="P23" s="107"/>
-      <c r="Q23" s="107"/>
-      <c r="R23" s="107"/>
-      <c r="S23" s="107"/>
-      <c r="T23" s="107"/>
-      <c r="U23" s="107"/>
-      <c r="V23" s="107"/>
-      <c r="W23" s="107"/>
-      <c r="X23" s="107"/>
-      <c r="Y23" s="107"/>
-      <c r="Z23" s="107"/>
-      <c r="AA23" s="107"/>
-      <c r="AB23" s="107"/>
-      <c r="AC23" s="107"/>
-      <c r="AD23" s="107"/>
-      <c r="AE23" s="107"/>
-      <c r="AF23" s="107"/>
-    </row>
-    <row r="24" spans="2:32" ht="15" customHeight="1">
-      <c r="B24" s="107"/>
-      <c r="C24" s="108" t="s">
-        <v>149</v>
-      </c>
-      <c r="D24" s="107" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="107"/>
-      <c r="P24" s="107"/>
-      <c r="Q24" s="107"/>
-      <c r="R24" s="107"/>
-      <c r="S24" s="107"/>
-      <c r="T24" s="107"/>
-      <c r="U24" s="107"/>
-      <c r="V24" s="107"/>
-      <c r="W24" s="107"/>
-      <c r="X24" s="107"/>
-      <c r="Y24" s="107"/>
-      <c r="Z24" s="107"/>
-      <c r="AA24" s="107"/>
-      <c r="AB24" s="107"/>
-      <c r="AC24" s="107"/>
-      <c r="AD24" s="107"/>
-      <c r="AE24" s="107"/>
-      <c r="AF24" s="107"/>
-    </row>
-    <row r="25" spans="2:32" ht="15" customHeight="1">
-      <c r="B25" s="107"/>
-      <c r="C25" s="107" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="107"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="107"/>
-      <c r="O25" s="107"/>
-      <c r="P25" s="107"/>
-      <c r="Q25" s="107"/>
-      <c r="R25" s="107"/>
-      <c r="S25" s="107"/>
-      <c r="T25" s="107"/>
-      <c r="U25" s="107"/>
-      <c r="V25" s="107"/>
-      <c r="W25" s="107"/>
-      <c r="X25" s="107"/>
-      <c r="Y25" s="107"/>
-      <c r="Z25" s="107"/>
-      <c r="AA25" s="107"/>
-      <c r="AB25" s="107"/>
-      <c r="AC25" s="107"/>
-      <c r="AD25" s="107"/>
-      <c r="AE25" s="107"/>
-      <c r="AF25" s="107"/>
-    </row>
-    <row r="26" spans="2:32" ht="15" customHeight="1">
-      <c r="B26" s="107"/>
-      <c r="C26" s="108" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="107"/>
-      <c r="N26" s="107"/>
-      <c r="O26" s="107"/>
-      <c r="P26" s="107"/>
-      <c r="Q26" s="107"/>
-      <c r="R26" s="107"/>
-      <c r="S26" s="107"/>
-      <c r="T26" s="107"/>
-      <c r="U26" s="107"/>
-      <c r="V26" s="107"/>
-      <c r="W26" s="107"/>
-      <c r="X26" s="107"/>
-      <c r="Y26" s="107"/>
-      <c r="Z26" s="107"/>
-      <c r="AA26" s="107"/>
-      <c r="AB26" s="107"/>
-      <c r="AC26" s="107"/>
-      <c r="AD26" s="107"/>
-      <c r="AE26" s="107"/>
-      <c r="AF26" s="107"/>
-    </row>
-    <row r="27" spans="2:32" ht="15" customHeight="1">
-      <c r="B27" s="107"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="107"/>
-      <c r="M27" s="107"/>
-      <c r="N27" s="107"/>
-      <c r="O27" s="107"/>
-      <c r="P27" s="107"/>
-      <c r="Q27" s="107"/>
-      <c r="R27" s="107"/>
-      <c r="S27" s="107"/>
-      <c r="T27" s="107"/>
-      <c r="U27" s="107"/>
-      <c r="V27" s="107"/>
-      <c r="W27" s="107"/>
-      <c r="X27" s="107"/>
-      <c r="Y27" s="107"/>
-      <c r="Z27" s="107"/>
-      <c r="AA27" s="107"/>
-      <c r="AB27" s="107"/>
-      <c r="AC27" s="107"/>
-      <c r="AD27" s="107"/>
-      <c r="AE27" s="107"/>
-      <c r="AF27" s="107"/>
-    </row>
-    <row r="28" spans="2:32" ht="15" customHeight="1">
-      <c r="B28" s="107"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="107"/>
-      <c r="L28" s="107"/>
-      <c r="M28" s="107"/>
-      <c r="N28" s="107"/>
-      <c r="O28" s="107"/>
-      <c r="P28" s="107"/>
-      <c r="Q28" s="107"/>
-      <c r="R28" s="107"/>
-      <c r="S28" s="107"/>
-      <c r="T28" s="107"/>
-      <c r="U28" s="107"/>
-      <c r="V28" s="107"/>
-      <c r="W28" s="107"/>
-      <c r="X28" s="107"/>
-      <c r="Y28" s="107"/>
-      <c r="Z28" s="107"/>
-      <c r="AA28" s="107"/>
-      <c r="AB28" s="107"/>
-      <c r="AC28" s="107"/>
-      <c r="AD28" s="107"/>
-      <c r="AE28" s="107"/>
-      <c r="AF28" s="107"/>
-    </row>
-    <row r="29" spans="2:32" ht="15" customHeight="1">
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="107"/>
-      <c r="M29" s="107"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="107"/>
-      <c r="U29" s="107"/>
-      <c r="V29" s="107"/>
-      <c r="W29" s="107"/>
-      <c r="X29" s="107"/>
-      <c r="Y29" s="107"/>
-      <c r="Z29" s="107"/>
-      <c r="AA29" s="107"/>
-      <c r="AB29" s="107"/>
-      <c r="AC29" s="107"/>
-      <c r="AD29" s="107"/>
-      <c r="AE29" s="107"/>
-      <c r="AF29" s="107"/>
-    </row>
-    <row r="30" spans="2:32" ht="15" customHeight="1">
-      <c r="B30" s="107"/>
-      <c r="C30" s="108" t="s">
-        <v>149</v>
-      </c>
-      <c r="D30" s="107" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="107"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="107"/>
-      <c r="K30" s="107"/>
-      <c r="L30" s="107"/>
-      <c r="M30" s="107"/>
-      <c r="N30" s="107"/>
-      <c r="O30" s="107"/>
-      <c r="P30" s="107"/>
-      <c r="Q30" s="107"/>
-      <c r="R30" s="107"/>
-      <c r="S30" s="107"/>
-      <c r="T30" s="107"/>
-      <c r="U30" s="107"/>
-      <c r="V30" s="107"/>
-      <c r="W30" s="107"/>
-      <c r="X30" s="107"/>
-      <c r="Y30" s="107"/>
-      <c r="Z30" s="107"/>
-      <c r="AA30" s="107"/>
-      <c r="AB30" s="107"/>
-      <c r="AC30" s="107"/>
-      <c r="AD30" s="107"/>
-      <c r="AE30" s="107"/>
-      <c r="AF30" s="107"/>
-    </row>
-    <row r="31" spans="2:32" ht="15" customHeight="1">
-      <c r="B31" s="107"/>
-      <c r="C31" s="108" t="s">
-        <v>149</v>
-      </c>
-      <c r="D31" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="107"/>
-      <c r="L31" s="107"/>
-      <c r="M31" s="107"/>
-      <c r="N31" s="107"/>
-      <c r="O31" s="107"/>
-      <c r="P31" s="107"/>
-      <c r="Q31" s="107"/>
-      <c r="R31" s="107"/>
-      <c r="S31" s="107"/>
-      <c r="T31" s="107"/>
-      <c r="U31" s="107"/>
-      <c r="V31" s="107"/>
-      <c r="W31" s="107"/>
-      <c r="X31" s="107"/>
-      <c r="Y31" s="107"/>
-      <c r="Z31" s="107"/>
-      <c r="AA31" s="107"/>
-      <c r="AB31" s="107"/>
-      <c r="AC31" s="107"/>
-      <c r="AD31" s="107"/>
-      <c r="AE31" s="107"/>
-      <c r="AF31" s="107"/>
-    </row>
-    <row r="32" spans="2:32" ht="15" customHeight="1">
-      <c r="B32" s="107"/>
-      <c r="C32" s="107" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="107"/>
-      <c r="L32" s="107"/>
-      <c r="M32" s="107"/>
-      <c r="N32" s="107"/>
-      <c r="O32" s="107"/>
-      <c r="P32" s="107"/>
-      <c r="Q32" s="107"/>
-      <c r="R32" s="107"/>
-      <c r="S32" s="107"/>
-      <c r="T32" s="107"/>
-      <c r="U32" s="107"/>
-      <c r="V32" s="107"/>
-      <c r="W32" s="107"/>
-      <c r="X32" s="107"/>
-      <c r="Y32" s="107"/>
-      <c r="Z32" s="107"/>
-      <c r="AA32" s="107"/>
-      <c r="AB32" s="107"/>
-      <c r="AC32" s="107"/>
-      <c r="AD32" s="107"/>
-      <c r="AE32" s="107"/>
-      <c r="AF32" s="107"/>
-    </row>
-    <row r="33" spans="2:32" ht="15" customHeight="1">
-      <c r="B33" s="107"/>
-      <c r="C33" s="108" t="s">
-        <v>149</v>
-      </c>
-      <c r="D33" s="107" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="107"/>
-      <c r="L33" s="107"/>
-      <c r="M33" s="107"/>
-      <c r="N33" s="107"/>
-      <c r="O33" s="107"/>
-      <c r="P33" s="107"/>
-      <c r="Q33" s="107"/>
-      <c r="R33" s="107"/>
-      <c r="S33" s="107"/>
-      <c r="T33" s="107"/>
-      <c r="U33" s="107"/>
-      <c r="V33" s="107"/>
-      <c r="W33" s="107"/>
-      <c r="X33" s="107"/>
-      <c r="Y33" s="107"/>
-      <c r="Z33" s="107"/>
-      <c r="AA33" s="107"/>
-      <c r="AB33" s="107"/>
-      <c r="AC33" s="107"/>
-      <c r="AD33" s="107"/>
-      <c r="AE33" s="107"/>
-      <c r="AF33" s="107"/>
-    </row>
-    <row r="34" spans="2:32" ht="15" customHeight="1">
-      <c r="B34" s="107"/>
-      <c r="C34" s="108" t="s">
-        <v>149</v>
-      </c>
-      <c r="D34" s="107" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="107"/>
-      <c r="L34" s="107"/>
-      <c r="M34" s="107"/>
-      <c r="N34" s="107"/>
-      <c r="O34" s="107"/>
-      <c r="P34" s="107"/>
-      <c r="Q34" s="107"/>
-      <c r="R34" s="107"/>
-      <c r="S34" s="107"/>
-      <c r="T34" s="107"/>
-      <c r="U34" s="107"/>
-      <c r="V34" s="107"/>
-      <c r="W34" s="107"/>
-      <c r="X34" s="107"/>
-      <c r="Y34" s="107"/>
-      <c r="Z34" s="107"/>
-      <c r="AA34" s="107"/>
-      <c r="AB34" s="107"/>
-      <c r="AC34" s="107"/>
-      <c r="AD34" s="107"/>
-      <c r="AE34" s="107"/>
-      <c r="AF34" s="107"/>
-    </row>
-    <row r="35" spans="2:32" ht="15" customHeight="1">
-      <c r="B35" s="107"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="108" t="s">
-        <v>149</v>
-      </c>
-      <c r="E35" s="107" t="s">
-        <v>157</v>
-      </c>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="107"/>
-      <c r="J35" s="107"/>
-      <c r="K35" s="107"/>
-      <c r="L35" s="107"/>
-      <c r="M35" s="107"/>
-      <c r="N35" s="107"/>
-      <c r="O35" s="107"/>
-      <c r="P35" s="107"/>
-      <c r="Q35" s="107"/>
-      <c r="R35" s="107"/>
-      <c r="S35" s="107"/>
-      <c r="T35" s="107"/>
-      <c r="U35" s="107"/>
-      <c r="V35" s="107"/>
-      <c r="W35" s="107"/>
-      <c r="X35" s="107"/>
-      <c r="Y35" s="107"/>
-      <c r="Z35" s="107"/>
-      <c r="AA35" s="107"/>
-      <c r="AB35" s="107"/>
-      <c r="AC35" s="107"/>
-      <c r="AD35" s="107"/>
-      <c r="AE35" s="107"/>
-      <c r="AF35" s="107"/>
-    </row>
-    <row r="36" spans="2:32" ht="15" customHeight="1">
-      <c r="B36" s="107"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="107"/>
-      <c r="J36" s="107"/>
-      <c r="K36" s="107"/>
-      <c r="L36" s="107"/>
-      <c r="M36" s="107"/>
-      <c r="N36" s="107"/>
-      <c r="O36" s="107"/>
-      <c r="P36" s="107"/>
-      <c r="Q36" s="107"/>
-      <c r="R36" s="107"/>
-      <c r="S36" s="107"/>
-      <c r="T36" s="107"/>
-      <c r="U36" s="107"/>
-      <c r="V36" s="107"/>
-      <c r="W36" s="107"/>
-      <c r="X36" s="107"/>
-      <c r="Y36" s="107"/>
-      <c r="Z36" s="107"/>
-      <c r="AA36" s="107"/>
-      <c r="AB36" s="107"/>
-      <c r="AC36" s="107"/>
-      <c r="AD36" s="107"/>
-      <c r="AE36" s="107"/>
-      <c r="AF36" s="107"/>
-    </row>
-    <row r="37" spans="2:32" ht="15" customHeight="1">
-      <c r="B37" s="107" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="107"/>
-      <c r="L37" s="107"/>
-      <c r="M37" s="107"/>
-      <c r="N37" s="107"/>
-      <c r="O37" s="107"/>
-      <c r="P37" s="107"/>
-      <c r="Q37" s="107"/>
-      <c r="R37" s="107"/>
-      <c r="S37" s="107"/>
-      <c r="T37" s="107"/>
-      <c r="U37" s="107"/>
-      <c r="V37" s="107"/>
-      <c r="W37" s="107"/>
-      <c r="X37" s="107"/>
-      <c r="Y37" s="107"/>
-      <c r="Z37" s="107"/>
-      <c r="AA37" s="107"/>
-      <c r="AB37" s="107"/>
-      <c r="AC37" s="107"/>
-      <c r="AD37" s="107"/>
-      <c r="AE37" s="107"/>
-      <c r="AF37" s="107"/>
-    </row>
-    <row r="38" spans="2:32" ht="15" customHeight="1">
-      <c r="B38" s="107" t="s">
+    </row>
+    <row r="40" spans="2:5" ht="15" customHeight="1">
+      <c r="C40" s="107" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="15" customHeight="1">
+      <c r="C41" s="107" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="15" customHeight="1">
+      <c r="C42" s="107" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="15" customHeight="1">
+      <c r="B43" t="s">
         <v>144</v>
       </c>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="107"/>
-      <c r="K38" s="107"/>
-      <c r="L38" s="107"/>
-      <c r="M38" s="107"/>
-      <c r="N38" s="107"/>
-      <c r="O38" s="107"/>
-      <c r="P38" s="107"/>
-      <c r="Q38" s="107"/>
-      <c r="R38" s="107"/>
-      <c r="S38" s="107"/>
-      <c r="T38" s="107"/>
-      <c r="U38" s="107"/>
-      <c r="V38" s="107"/>
-      <c r="W38" s="107"/>
-      <c r="X38" s="107"/>
-      <c r="Y38" s="107"/>
-      <c r="Z38" s="107"/>
-      <c r="AA38" s="107"/>
-      <c r="AB38" s="107"/>
-      <c r="AC38" s="107"/>
-      <c r="AD38" s="107"/>
-      <c r="AE38" s="107"/>
-      <c r="AF38" s="107"/>
-    </row>
-    <row r="39" spans="2:32" ht="15" customHeight="1">
-      <c r="B39" s="107"/>
-      <c r="C39" s="109" t="s">
-        <v>158</v>
-      </c>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="107"/>
-      <c r="K39" s="107"/>
-      <c r="L39" s="107"/>
-      <c r="M39" s="107"/>
-      <c r="N39" s="107"/>
-      <c r="O39" s="107"/>
-      <c r="P39" s="107"/>
-      <c r="Q39" s="107"/>
-      <c r="R39" s="107"/>
-      <c r="S39" s="107"/>
-      <c r="T39" s="107"/>
-      <c r="U39" s="107"/>
-      <c r="V39" s="107"/>
-      <c r="W39" s="107"/>
-      <c r="X39" s="107"/>
-      <c r="Y39" s="107"/>
-      <c r="Z39" s="107"/>
-      <c r="AA39" s="107"/>
-      <c r="AB39" s="107"/>
-      <c r="AC39" s="107"/>
-      <c r="AD39" s="107"/>
-      <c r="AE39" s="107"/>
-      <c r="AF39" s="107"/>
-    </row>
-    <row r="40" spans="2:32" ht="15" customHeight="1">
-      <c r="B40" s="107"/>
-      <c r="C40" s="109" t="s">
-        <v>119</v>
-      </c>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="107"/>
-      <c r="K40" s="107"/>
-      <c r="L40" s="107"/>
-      <c r="M40" s="107"/>
-      <c r="N40" s="107"/>
-      <c r="O40" s="107"/>
-      <c r="P40" s="107"/>
-      <c r="Q40" s="107"/>
-      <c r="R40" s="107"/>
-      <c r="S40" s="107"/>
-      <c r="T40" s="107"/>
-      <c r="U40" s="107"/>
-      <c r="V40" s="107"/>
-      <c r="W40" s="107"/>
-      <c r="X40" s="107"/>
-      <c r="Y40" s="107"/>
-      <c r="Z40" s="107"/>
-      <c r="AA40" s="107"/>
-      <c r="AB40" s="107"/>
-      <c r="AC40" s="107"/>
-      <c r="AD40" s="107"/>
-      <c r="AE40" s="107"/>
-      <c r="AF40" s="107"/>
-    </row>
-    <row r="41" spans="2:32" ht="15" customHeight="1">
-      <c r="B41" s="107"/>
-      <c r="C41" s="109" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="107"/>
-      <c r="K41" s="107"/>
-      <c r="L41" s="107"/>
-      <c r="M41" s="107"/>
-      <c r="N41" s="107"/>
-      <c r="O41" s="107"/>
-      <c r="P41" s="107"/>
-      <c r="Q41" s="107"/>
-      <c r="R41" s="107"/>
-      <c r="S41" s="107"/>
-      <c r="T41" s="107"/>
-      <c r="U41" s="107"/>
-      <c r="V41" s="107"/>
-      <c r="W41" s="107"/>
-      <c r="X41" s="107"/>
-      <c r="Y41" s="107"/>
-      <c r="Z41" s="107"/>
-      <c r="AA41" s="107"/>
-      <c r="AB41" s="107"/>
-      <c r="AC41" s="107"/>
-      <c r="AD41" s="107"/>
-      <c r="AE41" s="107"/>
-      <c r="AF41" s="107"/>
-    </row>
-    <row r="42" spans="2:32" ht="15" customHeight="1">
-      <c r="B42" s="107"/>
-      <c r="C42" s="109" t="s">
+    </row>
+    <row r="44" spans="2:5" ht="15" customHeight="1">
+      <c r="C44" t="s">
         <v>121</v>
       </c>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="107"/>
-      <c r="J42" s="107"/>
-      <c r="K42" s="107"/>
-      <c r="L42" s="107"/>
-      <c r="M42" s="107"/>
-      <c r="N42" s="107"/>
-      <c r="O42" s="107"/>
-      <c r="P42" s="107"/>
-      <c r="Q42" s="107"/>
-      <c r="R42" s="107"/>
-      <c r="S42" s="107"/>
-      <c r="T42" s="107"/>
-      <c r="U42" s="107"/>
-      <c r="V42" s="107"/>
-      <c r="W42" s="107"/>
-      <c r="X42" s="107"/>
-      <c r="Y42" s="107"/>
-      <c r="Z42" s="107"/>
-      <c r="AA42" s="107"/>
-      <c r="AB42" s="107"/>
-      <c r="AC42" s="107"/>
-      <c r="AD42" s="107"/>
-      <c r="AE42" s="107"/>
-      <c r="AF42" s="107"/>
-    </row>
-    <row r="43" spans="2:32" ht="15" customHeight="1">
-      <c r="B43" s="107" t="s">
-        <v>145</v>
-      </c>
-      <c r="C43" s="107"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="107"/>
-      <c r="H43" s="107"/>
-      <c r="I43" s="107"/>
-      <c r="J43" s="107"/>
-      <c r="K43" s="107"/>
-      <c r="L43" s="107"/>
-      <c r="M43" s="107"/>
-      <c r="N43" s="107"/>
-      <c r="O43" s="107"/>
-      <c r="P43" s="107"/>
-      <c r="Q43" s="107"/>
-      <c r="R43" s="107"/>
-      <c r="S43" s="107"/>
-      <c r="T43" s="107"/>
-      <c r="U43" s="107"/>
-      <c r="V43" s="107"/>
-      <c r="W43" s="107"/>
-      <c r="X43" s="107"/>
-      <c r="Y43" s="107"/>
-      <c r="Z43" s="107"/>
-      <c r="AA43" s="107"/>
-      <c r="AB43" s="107"/>
-      <c r="AC43" s="107"/>
-      <c r="AD43" s="107"/>
-      <c r="AE43" s="107"/>
-      <c r="AF43" s="107"/>
-    </row>
-    <row r="44" spans="2:32" ht="15" customHeight="1">
-      <c r="B44" s="107"/>
-      <c r="C44" s="107" t="s">
-        <v>122</v>
-      </c>
-      <c r="D44" s="107"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="107"/>
-      <c r="I44" s="107"/>
-      <c r="J44" s="107"/>
-      <c r="K44" s="107"/>
-      <c r="L44" s="107"/>
-      <c r="M44" s="107"/>
-      <c r="N44" s="107"/>
-      <c r="O44" s="107"/>
-      <c r="P44" s="107"/>
-      <c r="Q44" s="107"/>
-      <c r="R44" s="107"/>
-      <c r="S44" s="107"/>
-      <c r="T44" s="107"/>
-      <c r="U44" s="107"/>
-      <c r="V44" s="107"/>
-      <c r="W44" s="107"/>
-      <c r="X44" s="107"/>
-      <c r="Y44" s="107"/>
-      <c r="Z44" s="107"/>
-      <c r="AA44" s="107"/>
-      <c r="AB44" s="107"/>
-      <c r="AC44" s="107"/>
-      <c r="AD44" s="107"/>
-      <c r="AE44" s="107"/>
-      <c r="AF44" s="107"/>
-    </row>
-    <row r="45" spans="2:32" ht="15" customHeight="1">
-      <c r="D45" s="107"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="107"/>
-      <c r="G45" s="107"/>
-      <c r="H45" s="107"/>
-      <c r="I45" s="107"/>
-      <c r="J45" s="107"/>
-      <c r="K45" s="107"/>
-      <c r="L45" s="107"/>
-      <c r="M45" s="107"/>
-      <c r="N45" s="107"/>
-      <c r="O45" s="107"/>
-      <c r="P45" s="107"/>
-      <c r="Q45" s="107"/>
-      <c r="R45" s="107"/>
-      <c r="S45" s="107"/>
-      <c r="T45" s="107"/>
-      <c r="U45" s="107"/>
-      <c r="V45" s="107"/>
-      <c r="W45" s="107"/>
-      <c r="X45" s="107"/>
-      <c r="Y45" s="107"/>
-      <c r="Z45" s="107"/>
-      <c r="AA45" s="107"/>
-      <c r="AB45" s="107"/>
-      <c r="AC45" s="107"/>
-      <c r="AD45" s="107"/>
-      <c r="AE45" s="107"/>
-      <c r="AF45" s="107"/>
-    </row>
+    </row>
+    <row r="45" spans="2:5" ht="15" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6084,15 +4863,15 @@
         <v>15</v>
       </c>
       <c r="G1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>33</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25" customHeight="1">
       <c r="A2" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
@@ -6104,7 +4883,7 @@
     </row>
     <row r="3" spans="1:10" ht="17.25" customHeight="1">
       <c r="A3" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="25"/>
@@ -6116,7 +4895,7 @@
     </row>
     <row r="4" spans="1:10" ht="17.25" customHeight="1">
       <c r="A4" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="32"/>
@@ -6128,7 +4907,7 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" customHeight="1">
       <c r="A5" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="25"/>
@@ -6140,7 +4919,7 @@
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" thickBot="1">
       <c r="A6" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="37"/>
@@ -6152,33 +4931,33 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1">
       <c r="A14" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="C14" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="D14" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="E14" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="F14" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="G14" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="H14" s="45" t="s">
         <v>101</v>
-      </c>
-      <c r="H14" s="45" t="s">
-        <v>102</v>
       </c>
       <c r="I14" s="45"/>
     </row>
@@ -6202,207 +4981,207 @@
         <v>15</v>
       </c>
       <c r="G15" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="21" t="s">
         <v>33</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>34</v>
       </c>
       <c r="I15" s="40">
         <v>1</v>
       </c>
       <c r="J15" s="46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="91" customHeight="1">
       <c r="A16" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="42" t="s">
-        <v>63</v>
-      </c>
       <c r="H16" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I16" s="40">
         <v>2</v>
       </c>
       <c r="J16" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="91" customHeight="1">
       <c r="A17" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G17" s="44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H17" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I17" s="40">
         <v>3</v>
       </c>
       <c r="J17" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="91" customHeight="1">
       <c r="A18" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H18" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I18" s="40">
         <v>4</v>
       </c>
       <c r="J18" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="91" customHeight="1">
       <c r="A19" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I19" s="40">
         <v>5</v>
       </c>
       <c r="J19" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="91" customHeight="1" thickBot="1">
       <c r="A20" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G20" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H20" s="51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="40">
         <v>6</v>
       </c>
       <c r="J20" s="47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:10" customFormat="1" ht="56" customHeight="1">
-      <c r="A22" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22" s="75" t="s">
+      <c r="A22" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="77" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="77" t="s">
+      <c r="D22" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="E22" s="77" t="s">
-        <v>168</v>
-      </c>
-      <c r="F22" s="77" t="s">
-        <v>172</v>
-      </c>
-      <c r="G22" s="77" t="s">
-        <v>94</v>
-      </c>
-      <c r="H22" s="77" t="s">
-        <v>185</v>
+      <c r="F22" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="76" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -6419,8 +5198,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="14"/>
@@ -6451,101 +5230,101 @@
         <v>15</v>
       </c>
       <c r="G1" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25" customHeight="1">
       <c r="A2" s="54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="62"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
     </row>
     <row r="3" spans="1:10" ht="17.25" customHeight="1">
       <c r="A3" s="54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="17.25" customHeight="1">
       <c r="A4" s="54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="62"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="61"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" customHeight="1">
       <c r="A5" s="54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="62"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" customHeight="1" thickBot="1">
       <c r="A6" s="55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="56"/>
       <c r="C6" s="56"/>
       <c r="D6" s="57"/>
       <c r="E6" s="58"/>
       <c r="F6" s="58"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="60"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="59"/>
     </row>
     <row r="12" spans="1:10" s="22" customFormat="1">
       <c r="A12" s="40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="22" customFormat="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="22" customFormat="1" ht="15" thickBot="1">
       <c r="A13" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="C13" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="D13" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="E13" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="F13" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="G13" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="H13" s="45" t="s">
         <v>101</v>
-      </c>
-      <c r="H13" s="45" t="s">
-        <v>102</v>
       </c>
       <c r="I13" s="45"/>
     </row>
@@ -6568,208 +5347,208 @@
       <c r="F14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="H14" s="64" t="s">
         <v>26</v>
-      </c>
-      <c r="H14" s="65" t="s">
-        <v>27</v>
       </c>
       <c r="I14" s="40">
         <v>1</v>
       </c>
       <c r="J14" s="46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="90">
       <c r="A15" s="52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C15" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="E15" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="F15" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="73" t="s">
-        <v>63</v>
+      <c r="G15" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="72" t="s">
+        <v>62</v>
       </c>
       <c r="I15" s="40">
         <v>2</v>
       </c>
       <c r="J15" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="82" customHeight="1">
       <c r="A16" s="52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="73" t="s">
-        <v>63</v>
+        <v>78</v>
+      </c>
+      <c r="G16" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="72" t="s">
+        <v>62</v>
       </c>
       <c r="I16" s="40">
         <v>3</v>
       </c>
       <c r="J16" s="47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="82" customHeight="1">
       <c r="A17" s="52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G17" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="73" t="s">
-        <v>63</v>
+        <v>191</v>
+      </c>
+      <c r="H17" s="72" t="s">
+        <v>62</v>
       </c>
       <c r="I17" s="40">
         <v>4</v>
       </c>
       <c r="J17" s="47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="82" customHeight="1">
       <c r="A18" s="52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="73" t="s">
-        <v>63</v>
+        <v>190</v>
+      </c>
+      <c r="H18" s="72" t="s">
+        <v>62</v>
       </c>
       <c r="I18" s="40">
         <v>5</v>
       </c>
       <c r="J18" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="90" customHeight="1">
       <c r="A19" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="73" t="s">
         <v>82</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="74" t="s">
-        <v>83</v>
       </c>
       <c r="I19" s="40">
         <v>6</v>
       </c>
       <c r="J19" s="47" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="61" customHeight="1">
+      <c r="A21" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="76" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="61" customHeight="1">
-      <c r="A21" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="B21" s="75" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="77" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="77" t="s">
-        <v>167</v>
-      </c>
-      <c r="E21" s="77" t="s">
-        <v>168</v>
-      </c>
-      <c r="F21" s="77" t="s">
-        <v>172</v>
-      </c>
-      <c r="G21" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="77" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -6847,27 +5626,27 @@
     </row>
     <row r="12" spans="1:9" s="22" customFormat="1">
       <c r="A12" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="22" customFormat="1">
       <c r="A13" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="C13" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="D13" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="E13" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="F13" s="45" t="s">
         <v>99</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>100</v>
       </c>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -6886,17 +5665,17 @@
       <c r="D14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="65" t="s">
+      <c r="F14" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="78">
+      <c r="G14" s="77">
         <v>1</v>
       </c>
       <c r="H14" s="46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="89" customHeight="1">
@@ -6904,25 +5683,25 @@
         <v>21</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="E15" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="66" t="s">
+      <c r="F15" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="78">
+      <c r="G15" s="77">
         <v>2</v>
       </c>
-      <c r="H15" s="68" t="s">
-        <v>179</v>
+      <c r="H15" s="67" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="89" customHeight="1">
@@ -6930,25 +5709,25 @@
         <v>22</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="78">
+        <v>62</v>
+      </c>
+      <c r="E16" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="77">
         <v>3</v>
       </c>
-      <c r="H16" s="68" t="s">
-        <v>178</v>
+      <c r="H16" s="67" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="89" customHeight="1">
@@ -6956,59 +5735,59 @@
         <v>23</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="78">
+        <v>62</v>
+      </c>
+      <c r="E17" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="77">
         <v>4</v>
       </c>
-      <c r="H17" s="68" t="s">
-        <v>177</v>
+      <c r="H17" s="67" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
     </row>
     <row r="19" spans="1:8" ht="30">
-      <c r="A19" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19" s="75" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="77" t="s">
+      <c r="A19" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="76" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="77" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="77" t="s">
+      <c r="E19" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="76" t="s">
         <v>167</v>
-      </c>
-      <c r="F19" s="77" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -7059,7 +5838,7 @@
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
@@ -7092,30 +5871,30 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="C11" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="D11" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="E11" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="F11" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="G11" s="45" t="s">
         <v>100</v>
-      </c>
-      <c r="G11" s="45" t="s">
-        <v>101</v>
       </c>
       <c r="H11" s="45"/>
       <c r="I11" s="22"/>
@@ -7136,46 +5915,46 @@
       <c r="E12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="80" t="s">
+      <c r="F12" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="81" t="s">
+      <c r="G12" s="80" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="40">
         <v>1</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="90">
       <c r="A13" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="41" t="s">
+      <c r="E13" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="F13" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="66" t="s">
-        <v>117</v>
+      <c r="G13" s="65" t="s">
+        <v>116</v>
       </c>
       <c r="H13" s="40">
         <v>2</v>
       </c>
       <c r="I13" s="47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="45">
@@ -7183,28 +5962,28 @@
         <v>18</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>114</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="66" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="F14" s="78" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="65" t="s">
+        <v>114</v>
       </c>
       <c r="H14" s="40">
         <v>3</v>
       </c>
       <c r="I14" s="47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45">
@@ -7212,56 +5991,56 @@
         <v>17</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>115</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" s="79" t="s">
-        <v>116</v>
-      </c>
-      <c r="G15" s="66" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="F15" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="65" t="s">
+        <v>115</v>
       </c>
       <c r="H15" s="40">
         <v>4</v>
       </c>
       <c r="I15" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30">
-      <c r="A17" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="B17" s="75" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="77" t="s">
+      <c r="A17" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="D17" s="77" t="s">
-        <v>167</v>
-      </c>
-      <c r="E17" s="77" t="s">
-        <v>168</v>
-      </c>
-      <c r="F17" s="77" t="s">
+      <c r="G17" s="76" t="s">
         <v>172</v>
-      </c>
-      <c r="G17" s="77" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -7283,287 +6062,287 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.1640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="6" width="25.1640625" style="94"/>
-    <col min="7" max="7" width="25.1640625" style="99"/>
-    <col min="8" max="10" width="25.1640625" style="94"/>
-    <col min="11" max="11" width="25.1640625" style="98"/>
-    <col min="12" max="13" width="25.1640625" style="94"/>
-    <col min="14" max="14" width="5.83203125" style="85" customWidth="1"/>
-    <col min="15" max="16384" width="25.1640625" style="85"/>
+    <col min="1" max="6" width="25.1640625" style="93"/>
+    <col min="7" max="7" width="25.1640625" style="98"/>
+    <col min="8" max="10" width="25.1640625" style="93"/>
+    <col min="11" max="11" width="25.1640625" style="97"/>
+    <col min="12" max="13" width="25.1640625" style="93"/>
+    <col min="14" max="14" width="5.83203125" style="84" customWidth="1"/>
+    <col min="15" max="16384" width="25.1640625" style="84"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="24" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="82" t="s">
+      <c r="I1" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="82" t="s">
+      <c r="J1" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="84" t="s">
+      <c r="K1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="82" t="s">
+      <c r="L1" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="82" t="s">
+      <c r="M1" s="81" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="24" customHeight="1">
-      <c r="A2" s="86"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="94"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
+      <c r="A10" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="93"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="95" t="s">
+      <c r="C11" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="D11" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="95" t="s">
+      <c r="E11" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="95" t="s">
+      <c r="F11" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="95" t="s">
+      <c r="G11" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="95" t="s">
+      <c r="H11" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="95" t="s">
+      <c r="J11" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="J11" s="95" t="s">
+      <c r="K11" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="95" t="s">
+      <c r="L11" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="L11" s="95" t="s">
+      <c r="M11" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="M11" s="95" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="12" spans="1:15" ht="24" customHeight="1">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="82" t="s">
+      <c r="D12" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="100" t="s">
+      <c r="E12" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="102" t="s">
+      <c r="F12" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="103" t="s">
+      <c r="G12" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="102" t="s">
+      <c r="H12" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="102" t="s">
+      <c r="I12" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="102" t="s">
+      <c r="J12" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="104" t="s">
+      <c r="K12" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="102" t="s">
+      <c r="L12" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="102" t="s">
+      <c r="M12" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="93">
+      <c r="N12" s="92">
         <v>1</v>
       </c>
       <c r="O12" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="126" customHeight="1">
-      <c r="A13" s="96" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" s="96" t="s">
+      <c r="A13" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="95" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="D13" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="96" t="s">
+      <c r="E13" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="104" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" s="104" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" s="104" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="N13" s="92">
+        <v>2</v>
+      </c>
+      <c r="O13" s="47" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="F14" s="98"/>
+      <c r="G14" s="93"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="93"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="93"/>
+    </row>
+    <row r="15" spans="1:15" ht="54" customHeight="1">
+      <c r="A15" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="E13" s="101" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="105" t="s">
-        <v>132</v>
-      </c>
-      <c r="G13" s="105" t="s">
-        <v>133</v>
-      </c>
-      <c r="H13" s="105" t="s">
-        <v>134</v>
-      </c>
-      <c r="I13" s="105" t="s">
-        <v>135</v>
-      </c>
-      <c r="J13" s="105" t="s">
-        <v>138</v>
-      </c>
-      <c r="K13" s="66" t="s">
+      <c r="D15" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="H15" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="I15" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="J15" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="L15" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="M15" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="O15" s="96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="G16" s="93"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="93"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="L13" s="66" t="s">
-        <v>136</v>
-      </c>
-      <c r="M13" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="N13" s="93">
-        <v>2</v>
-      </c>
-      <c r="O13" s="47" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="F14" s="99"/>
-      <c r="G14" s="94"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="94"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="94"/>
-    </row>
-    <row r="15" spans="1:15" ht="54" customHeight="1">
-      <c r="A15" s="77" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="77" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="77" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="F15" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="G15" s="77" t="s">
-        <v>162</v>
-      </c>
-      <c r="H15" s="77" t="s">
-        <v>163</v>
-      </c>
-      <c r="I15" s="77" t="s">
-        <v>164</v>
-      </c>
-      <c r="J15" s="77" t="s">
-        <v>165</v>
-      </c>
-      <c r="K15" s="77" t="s">
-        <v>166</v>
-      </c>
-      <c r="L15" s="77" t="s">
-        <v>167</v>
-      </c>
-      <c r="M15" s="77" t="s">
-        <v>168</v>
-      </c>
-      <c r="O15" s="97" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="G16" s="94"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="94" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="94"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="94" t="s">
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="93" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="94" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/INPUT/excel/エクセル説明.xlsx
+++ b/INPUT/excel/エクセル説明.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kibakun/Documents/GitHub/2024start/Excel2MaiML2/setting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Expansion/現在進行形/90_PublicGithub/MaiMLFileHandlingPtograms/Excel2DocandProtocolofMaiML/INPUT/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78F0EC8-70C3-0147-B550-7BB31D328269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18B1398-90A5-E74E-B622-C2B99515DBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="2460" windowWidth="37900" windowHeight="25240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12400" yWindow="2460" windowWidth="37900" windowHeight="25240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="【入力エクセルの説明】" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="196">
   <si>
     <t>TEMPLATEID</t>
   </si>
@@ -1691,32 +1691,6 @@
     </rPh>
     <rPh sb="47" eb="49">
       <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>汎用データコンテナの&lt;name&gt;要素の値を記載する。
-記載がない場合の出力MaiMLデータは、タグのみ（&lt;name&gt;&lt;/name&gt;）設定される。</t>
-    <rPh sb="0" eb="2">
-      <t>ハンヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>シュテゥ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -3427,6 +3401,122 @@
     </rPh>
     <rPh sb="37" eb="39">
       <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UUID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;materialTemplate&gt;要素の&lt;uuid&gt;要素の値を記載する。
+記載がない場合の出力MaiMLデータにはデフォルト値が設定される。</t>
+    <rPh sb="18" eb="20">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シュテゥ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t xml:space="preserve">チガ </t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;conditionTemplate&gt;要素の&lt;uuid&gt;要素の値を記載する。
+記載がない場合の出力MaiMLデータにはデフォルト値が設定される。</t>
+    <rPh sb="19" eb="21">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シュテゥ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t xml:space="preserve">チガ </t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;resultTemplate&gt;要素の&lt;uuid&gt;要素の値を記載する。
+記載がない場合の出力MaiMLデータにはデフォルト値が設定される。</t>
+    <rPh sb="16" eb="18">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シュテゥ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t xml:space="preserve">チガ </t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UUID列は0または1列記載可能</t>
+    <rPh sb="4" eb="5">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カノ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -4561,45 +4651,45 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="X32" sqref="X32"/>
+      <selection activeCell="AF27" sqref="AF27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:4" ht="17">
       <c r="A1" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="B3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="B4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="C5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="C6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1"/>
     <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="B8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="C9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
@@ -4620,7 +4710,7 @@
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="C14" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
@@ -4628,7 +4718,7 @@
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="C15" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D15" t="s">
         <v>57</v>
@@ -4636,10 +4726,10 @@
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="C16" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="3:5" ht="15" customHeight="1">
@@ -4649,7 +4739,7 @@
     </row>
     <row r="18" spans="3:5" ht="15" customHeight="1">
       <c r="C18" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D18" t="s">
         <v>42</v>
@@ -4657,7 +4747,7 @@
     </row>
     <row r="19" spans="3:5" ht="15" customHeight="1">
       <c r="C19" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D19" t="s">
         <v>56</v>
@@ -4665,10 +4755,10 @@
     </row>
     <row r="20" spans="3:5" ht="15" customHeight="1">
       <c r="C20" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="3:5" ht="15" customHeight="1">
@@ -4678,7 +4768,7 @@
     </row>
     <row r="22" spans="3:5" ht="15" customHeight="1">
       <c r="C22" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D22" t="s">
         <v>44</v>
@@ -4686,7 +4776,7 @@
     </row>
     <row r="23" spans="3:5" ht="15" customHeight="1">
       <c r="C23" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D23" t="s">
         <v>45</v>
@@ -4694,7 +4784,7 @@
     </row>
     <row r="24" spans="3:5" ht="15" customHeight="1">
       <c r="C24" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D24" t="s">
         <v>55</v>
@@ -4707,7 +4797,7 @@
     </row>
     <row r="26" spans="3:5" ht="15" customHeight="1">
       <c r="C26" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D26" t="s">
         <v>48</v>
@@ -4730,7 +4820,7 @@
     </row>
     <row r="30" spans="3:5" ht="15" customHeight="1">
       <c r="C30" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D30" t="s">
         <v>45</v>
@@ -4738,7 +4828,7 @@
     </row>
     <row r="31" spans="3:5" ht="15" customHeight="1">
       <c r="C31" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D31" t="s">
         <v>54</v>
@@ -4751,7 +4841,7 @@
     </row>
     <row r="33" spans="2:5" ht="15" customHeight="1">
       <c r="C33" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D33" t="s">
         <v>52</v>
@@ -4759,7 +4849,7 @@
     </row>
     <row r="34" spans="2:5" ht="15" customHeight="1">
       <c r="C34" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D34" t="s">
         <v>53</v>
@@ -4767,10 +4857,10 @@
     </row>
     <row r="35" spans="2:5" ht="15" customHeight="1">
       <c r="D35" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="15" customHeight="1">
@@ -4778,17 +4868,17 @@
     </row>
     <row r="37" spans="2:5" ht="15" customHeight="1">
       <c r="B37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="15" customHeight="1">
       <c r="B38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="15" customHeight="1">
       <c r="C39" s="107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="15" customHeight="1">
@@ -4808,7 +4898,7 @@
     </row>
     <row r="43" spans="2:5" ht="15" customHeight="1">
       <c r="B43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="15" customHeight="1">
@@ -4990,7 +5080,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="91" customHeight="1">
@@ -4998,7 +5088,7 @@
         <v>34</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>61</v>
@@ -5054,7 +5144,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="91" customHeight="1">
@@ -5086,7 +5176,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="91" customHeight="1">
@@ -5118,7 +5208,7 @@
         <v>5</v>
       </c>
       <c r="J19" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="91" customHeight="1" thickBot="1">
@@ -5150,12 +5240,12 @@
         <v>6</v>
       </c>
       <c r="J20" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:10" customFormat="1" ht="56" customHeight="1">
       <c r="A22" s="75" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B22" s="74" t="s">
         <v>102</v>
@@ -5164,19 +5254,19 @@
         <v>103</v>
       </c>
       <c r="D22" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="E22" s="76" t="s">
-        <v>167</v>
-      </c>
       <c r="F22" s="76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G22" s="76" t="s">
         <v>93</v>
       </c>
       <c r="H22" s="76" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -5198,7 +5288,7 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -5230,7 +5320,7 @@
         <v>15</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>26</v>
@@ -5348,7 +5438,7 @@
         <v>15</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H14" s="64" t="s">
         <v>26</v>
@@ -5357,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="90">
@@ -5365,7 +5455,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>74</v>
@@ -5421,7 +5511,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="82" customHeight="1">
@@ -5444,7 +5534,7 @@
         <v>79</v>
       </c>
       <c r="G17" s="71" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H17" s="72" t="s">
         <v>62</v>
@@ -5453,7 +5543,7 @@
         <v>4</v>
       </c>
       <c r="J17" s="47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="82" customHeight="1">
@@ -5476,7 +5566,7 @@
         <v>80</v>
       </c>
       <c r="G18" s="71" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H18" s="72" t="s">
         <v>62</v>
@@ -5485,7 +5575,7 @@
         <v>5</v>
       </c>
       <c r="J18" s="47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="90" customHeight="1">
@@ -5517,12 +5607,12 @@
         <v>6</v>
       </c>
       <c r="J19" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="61" customHeight="1">
       <c r="A21" s="75" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B21" s="74" t="s">
         <v>102</v>
@@ -5531,19 +5621,19 @@
         <v>103</v>
       </c>
       <c r="D21" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="E21" s="76" t="s">
-        <v>167</v>
-      </c>
       <c r="F21" s="76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G21" s="76" t="s">
         <v>104</v>
       </c>
       <c r="H21" s="76" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -5675,7 +5765,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="89" customHeight="1">
@@ -5701,7 +5791,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="67" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="89" customHeight="1">
@@ -5727,7 +5817,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="67" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="89" customHeight="1">
@@ -5753,7 +5843,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="67" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -5767,7 +5857,7 @@
     </row>
     <row r="19" spans="1:8" ht="30">
       <c r="A19" s="75" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B19" s="74" t="s">
         <v>102</v>
@@ -5779,10 +5869,10 @@
         <v>107</v>
       </c>
       <c r="E19" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="76" t="s">
         <v>166</v>
-      </c>
-      <c r="F19" s="76" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -5801,19 +5891,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="7" width="26.6640625" style="3"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="1" max="8" width="26.6640625" style="3"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" customHeight="1">
+    <row r="1" spans="1:10" ht="17.25" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -5821,224 +5911,246 @@
         <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1">
+    <row r="2" spans="1:10" ht="17.25" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>109</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="17.25" customHeight="1">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="17.25" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="17.25" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="40" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="45" t="s">
         <v>94</v>
       </c>
       <c r="B11" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="45"/>
+      <c r="D11" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="E11" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="F11" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="G11" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="H11" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" spans="1:9" ht="15">
+      <c r="I11" s="45"/>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="1:10" ht="15">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="79" t="s">
+      <c r="G12" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="80" t="s">
+      <c r="H12" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="40">
+      <c r="I12" s="40">
         <v>1</v>
       </c>
-      <c r="I12" s="46" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="90">
+      <c r="J12" s="46" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="90">
       <c r="A13" s="52" t="s">
         <v>110</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="E13" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="F13" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="78" t="s">
+      <c r="G13" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="65" t="s">
+      <c r="H13" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="H13" s="40">
+      <c r="I13" s="40">
         <v>2</v>
       </c>
-      <c r="I13" s="47" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="45">
+      <c r="J13" s="47" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="60">
       <c r="A14" s="52" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="41" t="s">
+      <c r="C14" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="62" t="s">
         <v>114</v>
       </c>
       <c r="E14" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="78" t="s">
+      <c r="F14" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="65" t="s">
+      <c r="G14" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" s="40">
         <v>3</v>
       </c>
-      <c r="I14" s="47" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="45">
+      <c r="J14" s="47" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="60">
       <c r="A15" s="52" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="41" t="s">
+      <c r="C15" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="62" t="s">
         <v>115</v>
       </c>
       <c r="E15" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="78" t="s">
+      <c r="F15" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="65" t="s">
+      <c r="G15" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="40">
         <v>4</v>
       </c>
-      <c r="I15" s="47" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30">
+      <c r="J15" s="47" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30">
       <c r="A17" s="75" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="76" t="s">
+      <c r="C17" s="74" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="D17" s="76" t="s">
-        <v>166</v>
-      </c>
-      <c r="E17" s="76" t="s">
-        <v>167</v>
-      </c>
-      <c r="F17" s="76" t="s">
+      <c r="H17" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="G17" s="76" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
         <v>105</v>
       </c>
@@ -6054,10 +6166,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.1640625" defaultRowHeight="14"/>
@@ -6066,12 +6178,12 @@
     <col min="7" max="7" width="25.1640625" style="98"/>
     <col min="8" max="10" width="25.1640625" style="93"/>
     <col min="11" max="11" width="25.1640625" style="97"/>
-    <col min="12" max="13" width="25.1640625" style="93"/>
-    <col min="14" max="14" width="5.83203125" style="84" customWidth="1"/>
-    <col min="15" max="16384" width="25.1640625" style="84"/>
+    <col min="12" max="12" width="25.1640625" style="93"/>
+    <col min="13" max="13" width="5.83203125" style="84" customWidth="1"/>
+    <col min="14" max="16384" width="25.1640625" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24" customHeight="1">
+    <row r="1" spans="1:14" ht="24" customHeight="1">
       <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
@@ -6106,13 +6218,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="81" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="24" customHeight="1">
+    <row r="2" spans="1:14" ht="24" customHeight="1">
       <c r="A2" s="85"/>
       <c r="B2" s="86"/>
       <c r="C2" s="85"/>
@@ -6125,9 +6234,8 @@
       <c r="J2" s="90"/>
       <c r="K2" s="91"/>
       <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-    </row>
-    <row r="10" spans="1:15">
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="92" t="s">
         <v>60</v>
       </c>
@@ -6137,9 +6245,8 @@
       <c r="J10" s="84"/>
       <c r="K10" s="84"/>
       <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-    </row>
-    <row r="11" spans="1:15">
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="94" t="s">
         <v>94</v>
       </c>
@@ -6174,13 +6281,10 @@
         <v>97</v>
       </c>
       <c r="L11" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="M11" s="94" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="24" customHeight="1">
+    <row r="12" spans="1:14" ht="24" customHeight="1">
       <c r="A12" s="81" t="s">
         <v>0</v>
       </c>
@@ -6215,21 +6319,18 @@
         <v>10</v>
       </c>
       <c r="L12" s="101" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="92">
+      <c r="M12" s="92">
         <v>1</v>
       </c>
-      <c r="O12" s="46" t="s">
+      <c r="N12" s="46" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="126" customHeight="1">
+    <row r="13" spans="1:14" ht="126" customHeight="1">
       <c r="A13" s="95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B13" s="95" t="s">
         <v>124</v>
@@ -6256,33 +6357,30 @@
         <v>134</v>
       </c>
       <c r="J13" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" s="65" t="s">
         <v>137</v>
-      </c>
-      <c r="K13" s="65" t="s">
-        <v>138</v>
       </c>
       <c r="L13" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="M13" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="N13" s="92">
+      <c r="M13" s="92">
         <v>2</v>
       </c>
-      <c r="O13" s="47" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="N13" s="47" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="F14" s="98"/>
       <c r="G14" s="93"/>
       <c r="J14" s="97"/>
       <c r="K14" s="93"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="93"/>
-    </row>
-    <row r="15" spans="1:15" ht="54" customHeight="1">
+      <c r="L14" s="84"/>
+      <c r="M14" s="93"/>
+    </row>
+    <row r="15" spans="1:14" ht="54" customHeight="1">
       <c r="A15" s="76" t="s">
         <v>122</v>
       </c>
@@ -6296,37 +6394,34 @@
         <v>128</v>
       </c>
       <c r="E15" s="76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F15" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="G15" s="76" t="s">
+      <c r="H15" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="H15" s="76" t="s">
+      <c r="I15" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="I15" s="76" t="s">
+      <c r="J15" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="J15" s="76" t="s">
+      <c r="K15" s="76" t="s">
         <v>164</v>
-      </c>
-      <c r="K15" s="76" t="s">
-        <v>165</v>
       </c>
       <c r="L15" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="M15" s="76" t="s">
-        <v>167</v>
-      </c>
-      <c r="O15" s="96" t="s">
+      <c r="N15" s="96" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:14">
       <c r="G16" s="93"/>
     </row>
     <row r="17" spans="1:7">
@@ -6337,12 +6432,12 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="93" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="93" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
